--- a/application/src/test/resources/CCD_TestDefinition_V31_RDM-2053.xlsx
+++ b/application/src/test/resources/CCD_TestDefinition_V31_RDM-2053.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="29005"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrzejfolga/src/ccd/temp/ccd-definition-store-api/application/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/space/workspace/ccd-definition-store-api/application/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C408E87-1EE1-D34A-A582-0CF89D4D7D3B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5360" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16780" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -31,7 +32,7 @@
     <sheet name="AuthorisationCaseEvent" sheetId="17" r:id="rId17"/>
     <sheet name="AuthorisationCaseState" sheetId="18" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="281">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -891,17 +892,29 @@
   <si>
     <t xml:space="preserve">Boolean value to say if the event notes should be shown on the final submit page of an event </t>
   </si>
+  <si>
+    <t>Text value to show while submitting the event form data</t>
+  </si>
+  <si>
+    <t>EndButtonLabel</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Create Draft</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy"/>
     <numFmt numFmtId="165" formatCode="d\/m\/yy"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1109,6 +1122,31 @@
       <i/>
       <sz val="10"/>
       <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFC000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1392,7 +1430,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1447,9 +1485,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1572,6 +1607,17 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="32" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="33" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="34" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -1956,7 +2002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -2182,7 +2228,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -2235,11 +2281,11 @@
       <c r="F2" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
@@ -2248,10 +2294,10 @@
       <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="49" t="s">
         <v>193</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -2260,279 +2306,279 @@
       <c r="F3" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="56">
-        <v>42736</v>
-      </c>
-      <c r="B4" s="47"/>
+      <c r="A4" s="55">
+        <v>42736</v>
+      </c>
+      <c r="B4" s="46"/>
       <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="46">
         <v>1</v>
       </c>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="56">
-        <v>42736</v>
-      </c>
-      <c r="B5" s="47"/>
+      <c r="A5" s="55">
+        <v>42736</v>
+      </c>
+      <c r="B5" s="46"/>
       <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="46">
         <v>2</v>
       </c>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="56">
-        <v>42736</v>
-      </c>
-      <c r="B6" s="47"/>
+      <c r="A6" s="55">
+        <v>42736</v>
+      </c>
+      <c r="B6" s="46"/>
       <c r="C6" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="46">
         <v>3</v>
       </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="56">
-        <v>42736</v>
-      </c>
-      <c r="B7" s="47"/>
+      <c r="A7" s="55">
+        <v>42736</v>
+      </c>
+      <c r="B7" s="46"/>
       <c r="C7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F7" s="46">
         <v>2</v>
       </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="56">
-        <v>42736</v>
-      </c>
-      <c r="B8" s="47"/>
+      <c r="A8" s="55">
+        <v>42736</v>
+      </c>
+      <c r="B8" s="46"/>
       <c r="C8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="46">
         <v>3</v>
       </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="56">
-        <v>42736</v>
-      </c>
-      <c r="B9" s="47"/>
+      <c r="A9" s="55">
+        <v>42736</v>
+      </c>
+      <c r="B9" s="46"/>
       <c r="C9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="47">
+      <c r="F9" s="46">
         <v>1</v>
       </c>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="47"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
@@ -2544,7 +2590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -2554,297 +2600,297 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="28.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="57" customWidth="1"/>
-    <col min="3" max="3" width="29.83203125" style="57" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="57" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" style="57" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="57" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="56" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" style="56" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="56" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="56" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="56" customWidth="1"/>
     <col min="7" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.15">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="63" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="63" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="59" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="64" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="53" t="s">
+      <c r="A4" s="51">
+        <v>42736</v>
+      </c>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="53" t="s">
+      <c r="A5" s="51">
+        <v>42736</v>
+      </c>
+      <c r="B5" s="51"/>
+      <c r="C5" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="46">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="53" t="s">
+      <c r="A6" s="51">
+        <v>42736</v>
+      </c>
+      <c r="B6" s="51"/>
+      <c r="C6" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="46">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="53" t="s">
+      <c r="A7" s="51">
+        <v>42736</v>
+      </c>
+      <c r="B7" s="51"/>
+      <c r="C7" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F7" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="53" t="s">
+      <c r="A8" s="51">
+        <v>42736</v>
+      </c>
+      <c r="B8" s="51"/>
+      <c r="C8" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="46">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="53" t="s">
+      <c r="A9" s="51">
+        <v>42736</v>
+      </c>
+      <c r="B9" s="51"/>
+      <c r="C9" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="47">
+      <c r="F9" s="46">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="53" t="s">
+      <c r="A10" s="51">
+        <v>42736</v>
+      </c>
+      <c r="B10" s="51"/>
+      <c r="C10" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="46">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="53" t="s">
+      <c r="A11" s="51">
+        <v>42736</v>
+      </c>
+      <c r="B11" s="51"/>
+      <c r="C11" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="E11" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F11" s="46">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="53" t="s">
+      <c r="A12" s="51">
+        <v>42736</v>
+      </c>
+      <c r="B12" s="51"/>
+      <c r="C12" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="47">
+      <c r="F12" s="46">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="53" t="s">
+      <c r="A13" s="51">
+        <v>42736</v>
+      </c>
+      <c r="B13" s="51"/>
+      <c r="C13" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="47">
+      <c r="F13" s="46">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="53" t="s">
+      <c r="A14" s="51">
+        <v>42736</v>
+      </c>
+      <c r="B14" s="51"/>
+      <c r="C14" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="53" t="s">
+      <c r="E14" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="47">
+      <c r="F14" s="46">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="53" t="s">
+      <c r="A15" s="51">
+        <v>42736</v>
+      </c>
+      <c r="B15" s="51"/>
+      <c r="C15" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="47">
+      <c r="F15" s="46">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="53" t="s">
+      <c r="A16" s="51">
+        <v>42736</v>
+      </c>
+      <c r="B16" s="51"/>
+      <c r="C16" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="53" t="s">
+      <c r="E16" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="47">
+      <c r="F16" s="46">
         <v>10</v>
       </c>
     </row>
@@ -2858,7 +2904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -2909,7 +2955,7 @@
       <c r="E2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="65" t="s">
         <v>156</v>
       </c>
       <c r="G2" s="4"/>
@@ -2925,10 +2971,10 @@
       <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="49" t="s">
         <v>193</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -2937,86 +2983,86 @@
       <c r="F3" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>42736</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="66"/>
       <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="46">
         <v>1</v>
       </c>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>42736</v>
       </c>
-      <c r="B5" s="47"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="46">
         <v>1</v>
       </c>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>42736</v>
       </c>
-      <c r="B6" s="47"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="46">
         <v>1</v>
       </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>42736</v>
       </c>
-      <c r="B7" s="47"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="3" t="s">
         <v>27</v>
       </c>
@@ -3026,20 +3072,20 @@
       <c r="E7" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F7" s="46">
         <v>2</v>
       </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>42736</v>
       </c>
-      <c r="B8" s="47"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="3" t="s">
         <v>27</v>
       </c>
@@ -3049,167 +3095,167 @@
       <c r="E8" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="46">
         <v>3</v>
       </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>42736</v>
       </c>
-      <c r="B9" s="47"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="47">
+      <c r="F9" s="46">
         <v>1</v>
       </c>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="52"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="52"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="52"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="52"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="52"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="52"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="52"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="52"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
@@ -3221,7 +3267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
@@ -3280,22 +3326,22 @@
       <c r="E2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="65" t="s">
         <v>226</v>
       </c>
-      <c r="H2" s="66" t="s">
+      <c r="H2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="65" t="s">
         <v>226</v>
       </c>
-      <c r="J2" s="123" t="s">
+      <c r="J2" s="122" t="s">
         <v>272</v>
       </c>
-      <c r="K2" s="124" t="s">
+      <c r="K2" s="123" t="s">
         <v>271</v>
       </c>
       <c r="L2" s="4"/>
@@ -3330,10 +3376,10 @@
       <c r="I3" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="J3" s="125" t="s">
+      <c r="J3" s="124" t="s">
         <v>118</v>
       </c>
-      <c r="K3" s="125" t="s">
+      <c r="K3" s="124" t="s">
         <v>268</v>
       </c>
       <c r="L3" s="8"/>
@@ -3354,7 +3400,7 @@
       <c r="E4" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="4">
@@ -3388,7 +3434,7 @@
       <c r="E5" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="52" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="4">
@@ -3422,7 +3468,7 @@
       <c r="E6" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="52" t="s">
         <v>55</v>
       </c>
       <c r="G6" s="4">
@@ -3454,7 +3500,7 @@
       <c r="E7" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="52" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="4">
@@ -3486,7 +3532,7 @@
       <c r="E8" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="52" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="4">
@@ -3518,7 +3564,7 @@
       <c r="E9" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="52" t="s">
         <v>55</v>
       </c>
       <c r="G9" s="4">
@@ -3550,7 +3596,7 @@
       <c r="E10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="F10" s="52" t="s">
         <v>235</v>
       </c>
       <c r="G10" s="4">
@@ -3582,7 +3628,7 @@
       <c r="E11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="F11" s="52" t="s">
         <v>235</v>
       </c>
       <c r="G11" s="4">
@@ -3614,7 +3660,7 @@
       <c r="E12" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="53" t="s">
+      <c r="F12" s="52" t="s">
         <v>235</v>
       </c>
       <c r="G12" s="4">
@@ -3646,7 +3692,7 @@
       <c r="E13" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="53" t="s">
+      <c r="F13" s="52" t="s">
         <v>236</v>
       </c>
       <c r="G13" s="4">
@@ -3678,7 +3724,7 @@
       <c r="E14" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="52" t="s">
         <v>235</v>
       </c>
       <c r="G14" s="4">
@@ -3710,7 +3756,7 @@
       <c r="E15" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="53" t="s">
+      <c r="F15" s="52" t="s">
         <v>235</v>
       </c>
       <c r="G15" s="4">
@@ -3742,7 +3788,7 @@
       <c r="E16" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="53" t="s">
+      <c r="F16" s="52" t="s">
         <v>235</v>
       </c>
       <c r="G16" s="4">
@@ -3930,7 +3976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
@@ -4010,16 +4056,16 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="68">
-        <v>42736</v>
-      </c>
-      <c r="B4" s="69">
+      <c r="A4" s="67">
+        <v>42736</v>
+      </c>
+      <c r="B4" s="68">
         <v>42737</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="69" t="s">
         <v>242</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="70" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -4035,16 +4081,16 @@
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="72">
-        <v>42736</v>
-      </c>
-      <c r="B5" s="73">
+      <c r="A5" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B5" s="72">
         <v>42737</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="73" t="s">
         <v>243</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -4060,13 +4106,13 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="76">
-        <v>42736</v>
-      </c>
-      <c r="B6" s="77"/>
+      <c r="A6" s="75">
+        <v>42736</v>
+      </c>
+      <c r="B6" s="76"/>
       <c r="C6" s="36"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
       <c r="F6" s="34"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -4128,8 +4174,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4140,7 +4186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:IU10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -4951,7 +4997,7 @@
       <c r="IU3" s="26"/>
     </row>
     <row r="4" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="79">
+      <c r="A4" s="78">
         <v>42736</v>
       </c>
       <c r="B4" s="4"/>
@@ -5216,7 +5262,7 @@
       <c r="IU4" s="26"/>
     </row>
     <row r="5" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="79">
+      <c r="A5" s="78">
         <v>42736</v>
       </c>
       <c r="B5" s="4"/>
@@ -5481,7 +5527,7 @@
       <c r="IU5" s="26"/>
     </row>
     <row r="6" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="79">
+      <c r="A6" s="78">
         <v>42736</v>
       </c>
       <c r="B6" s="4"/>
@@ -5746,14 +5792,14 @@
       <c r="IU6" s="26"/>
     </row>
     <row r="7" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="80">
+      <c r="A7" s="79">
         <v>42736</v>
       </c>
       <c r="B7" s="23"/>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="D7" s="70" t="s">
         <v>249</v>
       </c>
       <c r="E7" s="29" t="s">
@@ -6011,17 +6057,17 @@
       <c r="IU7" s="26"/>
     </row>
     <row r="8" spans="1:255" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="81">
+      <c r="A8" s="80">
         <v>42736</v>
       </c>
       <c r="B8" s="17"/>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="74" t="s">
         <v>251</v>
       </c>
-      <c r="E8" s="82" t="s">
+      <c r="E8" s="81" t="s">
         <v>255</v>
       </c>
       <c r="F8" s="4"/>
@@ -6276,14 +6322,14 @@
       <c r="IU8" s="26"/>
     </row>
     <row r="9" spans="1:255" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="83">
+      <c r="A9" s="82">
         <v>42736</v>
       </c>
       <c r="B9" s="36"/>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="77" t="s">
         <v>253</v>
       </c>
       <c r="E9" s="32" t="s">
@@ -6807,7 +6853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -6823,654 +6869,654 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="83" t="s">
         <v>257</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
     </row>
     <row r="2" spans="1:11" ht="65" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="87"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="89" t="s">
+      <c r="A2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="89" t="s">
+      <c r="E2" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="90" t="s">
+      <c r="F2" s="89" t="s">
         <v>246</v>
       </c>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
     </row>
     <row r="3" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="92" t="s">
+      <c r="D3" s="91" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="92" t="s">
+      <c r="E3" s="91" t="s">
         <v>247</v>
       </c>
-      <c r="F3" s="92" t="s">
+      <c r="F3" s="91" t="s">
         <v>248</v>
       </c>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
     </row>
     <row r="4" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="94">
-        <v>42736</v>
-      </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="96" t="s">
+      <c r="A4" s="93">
+        <v>42736</v>
+      </c>
+      <c r="B4" s="94"/>
+      <c r="C4" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="96" t="s">
+      <c r="D4" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="96" t="s">
+      <c r="E4" s="95" t="s">
         <v>249</v>
       </c>
-      <c r="F4" s="96" t="s">
+      <c r="F4" s="95" t="s">
         <v>250</v>
       </c>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="97"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="96"/>
     </row>
     <row r="5" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="94">
-        <v>42736</v>
-      </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="96" t="s">
+      <c r="A5" s="93">
+        <v>42736</v>
+      </c>
+      <c r="B5" s="94"/>
+      <c r="C5" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="96" t="s">
+      <c r="D5" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="96" t="s">
+      <c r="E5" s="95" t="s">
         <v>251</v>
       </c>
-      <c r="F5" s="96" t="s">
+      <c r="F5" s="95" t="s">
         <v>252</v>
       </c>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="97"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="96"/>
     </row>
     <row r="6" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="94">
-        <v>42736</v>
-      </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="96" t="s">
+      <c r="A6" s="93">
+        <v>42736</v>
+      </c>
+      <c r="B6" s="94"/>
+      <c r="C6" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="96" t="s">
+      <c r="D6" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="96" t="s">
+      <c r="E6" s="95" t="s">
         <v>253</v>
       </c>
-      <c r="F6" s="96" t="s">
+      <c r="F6" s="95" t="s">
         <v>258</v>
       </c>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="97"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="96"/>
     </row>
     <row r="7" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="94">
-        <v>42736</v>
-      </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="96" t="s">
+      <c r="A7" s="93">
+        <v>42736</v>
+      </c>
+      <c r="B7" s="94"/>
+      <c r="C7" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="96" t="s">
+      <c r="D7" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="96" t="s">
+      <c r="E7" s="95" t="s">
         <v>249</v>
       </c>
-      <c r="F7" s="96" t="s">
+      <c r="F7" s="95" t="s">
         <v>250</v>
       </c>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="97"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="96"/>
     </row>
     <row r="8" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="94">
-        <v>42736</v>
-      </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="96" t="s">
+      <c r="A8" s="93">
+        <v>42736</v>
+      </c>
+      <c r="B8" s="94"/>
+      <c r="C8" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="96" t="s">
+      <c r="D8" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="96" t="s">
+      <c r="E8" s="95" t="s">
         <v>251</v>
       </c>
-      <c r="F8" s="96" t="s">
+      <c r="F8" s="95" t="s">
         <v>252</v>
       </c>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="97"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="96"/>
     </row>
     <row r="9" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="94">
-        <v>42736</v>
-      </c>
-      <c r="B9" s="95"/>
-      <c r="C9" s="96" t="s">
+      <c r="A9" s="93">
+        <v>42736</v>
+      </c>
+      <c r="B9" s="94"/>
+      <c r="C9" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="96" t="s">
+      <c r="D9" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="96" t="s">
+      <c r="E9" s="95" t="s">
         <v>253</v>
       </c>
-      <c r="F9" s="96" t="s">
+      <c r="F9" s="95" t="s">
         <v>258</v>
       </c>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="97"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="96"/>
     </row>
     <row r="10" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="94">
-        <v>42736</v>
-      </c>
-      <c r="B10" s="95"/>
-      <c r="C10" s="96" t="s">
+      <c r="A10" s="93">
+        <v>42736</v>
+      </c>
+      <c r="B10" s="94"/>
+      <c r="C10" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="96" t="s">
+      <c r="D10" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="96" t="s">
+      <c r="E10" s="95" t="s">
         <v>249</v>
       </c>
-      <c r="F10" s="96" t="s">
+      <c r="F10" s="95" t="s">
         <v>250</v>
       </c>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="97"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="96"/>
     </row>
     <row r="11" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="94">
-        <v>42736</v>
-      </c>
-      <c r="B11" s="95"/>
-      <c r="C11" s="96" t="s">
+      <c r="A11" s="93">
+        <v>42736</v>
+      </c>
+      <c r="B11" s="94"/>
+      <c r="C11" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="96" t="s">
+      <c r="D11" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="96" t="s">
+      <c r="E11" s="95" t="s">
         <v>251</v>
       </c>
-      <c r="F11" s="96" t="s">
+      <c r="F11" s="95" t="s">
         <v>252</v>
       </c>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="97"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="96"/>
     </row>
     <row r="12" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="94">
-        <v>42736</v>
-      </c>
-      <c r="B12" s="95"/>
-      <c r="C12" s="96" t="s">
+      <c r="A12" s="93">
+        <v>42736</v>
+      </c>
+      <c r="B12" s="94"/>
+      <c r="C12" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="96" t="s">
+      <c r="E12" s="95" t="s">
         <v>253</v>
       </c>
-      <c r="F12" s="96" t="s">
+      <c r="F12" s="95" t="s">
         <v>258</v>
       </c>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="97"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="96"/>
     </row>
     <row r="13" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="94">
-        <v>42736</v>
-      </c>
-      <c r="B13" s="95"/>
-      <c r="C13" s="96" t="s">
+      <c r="A13" s="93">
+        <v>42736</v>
+      </c>
+      <c r="B13" s="94"/>
+      <c r="C13" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="96" t="s">
+      <c r="D13" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="96" t="s">
+      <c r="E13" s="95" t="s">
         <v>249</v>
       </c>
-      <c r="F13" s="96" t="s">
+      <c r="F13" s="95" t="s">
         <v>250</v>
       </c>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="97"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="96"/>
     </row>
     <row r="14" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="94">
-        <v>42736</v>
-      </c>
-      <c r="B14" s="95"/>
-      <c r="C14" s="96" t="s">
+      <c r="A14" s="93">
+        <v>42736</v>
+      </c>
+      <c r="B14" s="94"/>
+      <c r="C14" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="96" t="s">
+      <c r="D14" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="96" t="s">
+      <c r="E14" s="95" t="s">
         <v>249</v>
       </c>
-      <c r="F14" s="96" t="s">
+      <c r="F14" s="95" t="s">
         <v>250</v>
       </c>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="97"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="96"/>
     </row>
     <row r="15" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="94">
-        <v>42736</v>
-      </c>
-      <c r="B15" s="95"/>
-      <c r="C15" s="96" t="s">
+      <c r="A15" s="93">
+        <v>42736</v>
+      </c>
+      <c r="B15" s="94"/>
+      <c r="C15" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="96" t="s">
+      <c r="D15" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="96" t="s">
+      <c r="E15" s="95" t="s">
         <v>249</v>
       </c>
-      <c r="F15" s="96" t="s">
+      <c r="F15" s="95" t="s">
         <v>250</v>
       </c>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="97"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="96"/>
     </row>
     <row r="16" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="94">
-        <v>42736</v>
-      </c>
-      <c r="B16" s="95"/>
-      <c r="C16" s="96" t="s">
+      <c r="A16" s="93">
+        <v>42736</v>
+      </c>
+      <c r="B16" s="94"/>
+      <c r="C16" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="96" t="s">
+      <c r="D16" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="96" t="s">
+      <c r="E16" s="95" t="s">
         <v>249</v>
       </c>
-      <c r="F16" s="96" t="s">
+      <c r="F16" s="95" t="s">
         <v>250</v>
       </c>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="97"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="96"/>
     </row>
     <row r="17" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="94">
-        <v>42736</v>
-      </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="96" t="s">
+      <c r="A17" s="93">
+        <v>42736</v>
+      </c>
+      <c r="B17" s="94"/>
+      <c r="C17" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="96" t="s">
+      <c r="D17" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="96" t="s">
+      <c r="E17" s="95" t="s">
         <v>249</v>
       </c>
-      <c r="F17" s="96" t="s">
+      <c r="F17" s="95" t="s">
         <v>250</v>
       </c>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="97"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="96"/>
     </row>
     <row r="18" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="94">
-        <v>42736</v>
-      </c>
-      <c r="B18" s="95"/>
-      <c r="C18" s="96" t="s">
+      <c r="A18" s="93">
+        <v>42736</v>
+      </c>
+      <c r="B18" s="94"/>
+      <c r="C18" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="96" t="s">
+      <c r="D18" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="96" t="s">
+      <c r="E18" s="95" t="s">
         <v>249</v>
       </c>
-      <c r="F18" s="96" t="s">
+      <c r="F18" s="95" t="s">
         <v>250</v>
       </c>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="97"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="96"/>
     </row>
     <row r="19" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="94">
-        <v>42736</v>
-      </c>
-      <c r="B19" s="95"/>
-      <c r="C19" s="96" t="s">
+      <c r="A19" s="93">
+        <v>42736</v>
+      </c>
+      <c r="B19" s="94"/>
+      <c r="C19" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="96" t="s">
+      <c r="D19" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="96" t="s">
+      <c r="E19" s="95" t="s">
         <v>249</v>
       </c>
-      <c r="F19" s="96" t="s">
+      <c r="F19" s="95" t="s">
         <v>250</v>
       </c>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="97"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="96"/>
     </row>
     <row r="20" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="94">
-        <v>42736</v>
-      </c>
-      <c r="B20" s="95"/>
-      <c r="C20" s="96" t="s">
+      <c r="A20" s="93">
+        <v>42736</v>
+      </c>
+      <c r="B20" s="94"/>
+      <c r="C20" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="96" t="s">
+      <c r="D20" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="96" t="s">
+      <c r="E20" s="95" t="s">
         <v>249</v>
       </c>
-      <c r="F20" s="96" t="s">
+      <c r="F20" s="95" t="s">
         <v>250</v>
       </c>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="97"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="96"/>
     </row>
     <row r="21" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="94">
-        <v>42736</v>
-      </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="96" t="s">
+      <c r="A21" s="93">
+        <v>42736</v>
+      </c>
+      <c r="B21" s="94"/>
+      <c r="C21" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="96" t="s">
+      <c r="D21" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="96" t="s">
+      <c r="E21" s="95" t="s">
         <v>249</v>
       </c>
-      <c r="F21" s="96" t="s">
+      <c r="F21" s="95" t="s">
         <v>250</v>
       </c>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="97"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="96"/>
     </row>
     <row r="22" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="94">
-        <v>42736</v>
-      </c>
-      <c r="B22" s="95"/>
-      <c r="C22" s="96" t="s">
+      <c r="A22" s="93">
+        <v>42736</v>
+      </c>
+      <c r="B22" s="94"/>
+      <c r="C22" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="96" t="s">
+      <c r="D22" s="95" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="96" t="s">
+      <c r="E22" s="95" t="s">
         <v>249</v>
       </c>
-      <c r="F22" s="96" t="s">
+      <c r="F22" s="95" t="s">
         <v>250</v>
       </c>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="97"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="96"/>
     </row>
     <row r="23" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="94">
-        <v>42736</v>
-      </c>
-      <c r="B23" s="95"/>
-      <c r="C23" s="96" t="s">
+      <c r="A23" s="93">
+        <v>42736</v>
+      </c>
+      <c r="B23" s="94"/>
+      <c r="C23" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="96" t="s">
+      <c r="D23" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="E23" s="96" t="s">
+      <c r="E23" s="95" t="s">
         <v>249</v>
       </c>
-      <c r="F23" s="96" t="s">
+      <c r="F23" s="95" t="s">
         <v>250</v>
       </c>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="97"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="96"/>
     </row>
     <row r="24" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="94">
-        <v>42736</v>
-      </c>
-      <c r="B24" s="95"/>
-      <c r="C24" s="96" t="s">
+      <c r="A24" s="93">
+        <v>42736</v>
+      </c>
+      <c r="B24" s="94"/>
+      <c r="C24" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="96" t="s">
+      <c r="D24" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="96" t="s">
+      <c r="E24" s="95" t="s">
         <v>249</v>
       </c>
-      <c r="F24" s="96" t="s">
+      <c r="F24" s="95" t="s">
         <v>250</v>
       </c>
-      <c r="G24" s="95"/>
-      <c r="H24" s="95"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="97"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="96"/>
     </row>
     <row r="25" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="94">
-        <v>42736</v>
-      </c>
-      <c r="B25" s="95"/>
-      <c r="C25" s="96" t="s">
+      <c r="A25" s="93">
+        <v>42736</v>
+      </c>
+      <c r="B25" s="94"/>
+      <c r="C25" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="96" t="s">
+      <c r="D25" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="E25" s="96" t="s">
+      <c r="E25" s="95" t="s">
         <v>249</v>
       </c>
-      <c r="F25" s="96" t="s">
+      <c r="F25" s="95" t="s">
         <v>250</v>
       </c>
-      <c r="G25" s="95"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="95"/>
-      <c r="K25" s="97"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="96"/>
     </row>
     <row r="26" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="94">
-        <v>42736</v>
-      </c>
-      <c r="B26" s="95"/>
-      <c r="C26" s="96" t="s">
+      <c r="A26" s="93">
+        <v>42736</v>
+      </c>
+      <c r="B26" s="94"/>
+      <c r="C26" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="98" t="s">
+      <c r="D26" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="E26" s="96" t="s">
+      <c r="E26" s="95" t="s">
         <v>249</v>
       </c>
-      <c r="F26" s="96" t="s">
+      <c r="F26" s="95" t="s">
         <v>250</v>
       </c>
-      <c r="G26" s="95"/>
-      <c r="H26" s="95"/>
-      <c r="I26" s="95"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="97"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="96"/>
     </row>
     <row r="27" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="94">
-        <v>42736</v>
-      </c>
-      <c r="B27" s="95"/>
-      <c r="C27" s="99" t="s">
+      <c r="A27" s="93">
+        <v>42736</v>
+      </c>
+      <c r="B27" s="94"/>
+      <c r="C27" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="96" t="s">
+      <c r="D27" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="96" t="s">
+      <c r="E27" s="95" t="s">
         <v>249</v>
       </c>
-      <c r="F27" s="96" t="s">
+      <c r="F27" s="95" t="s">
         <v>250</v>
       </c>
-      <c r="G27" s="95"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="97"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="96"/>
     </row>
     <row r="28" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="94">
-        <v>42736</v>
-      </c>
-      <c r="B28" s="95"/>
-      <c r="C28" s="99" t="s">
+      <c r="A28" s="93">
+        <v>42736</v>
+      </c>
+      <c r="B28" s="94"/>
+      <c r="C28" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="98" t="s">
+      <c r="D28" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="96" t="s">
+      <c r="E28" s="95" t="s">
         <v>249</v>
       </c>
-      <c r="F28" s="96" t="s">
+      <c r="F28" s="95" t="s">
         <v>250</v>
       </c>
-      <c r="G28" s="95"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="95"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="97"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="96"/>
     </row>
     <row r="29" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="81"/>
+      <c r="A29" s="80"/>
       <c r="B29" s="17"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
       <c r="I29" s="17"/>
@@ -7478,12 +7524,12 @@
       <c r="K29" s="26"/>
     </row>
     <row r="30" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="81"/>
+      <c r="A30" s="80"/>
       <c r="B30" s="17"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
@@ -7491,12 +7537,12 @@
       <c r="K30" s="26"/>
     </row>
     <row r="31" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="81"/>
+      <c r="A31" s="80"/>
       <c r="B31" s="17"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
@@ -7504,12 +7550,12 @@
       <c r="K31" s="26"/>
     </row>
     <row r="32" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="81"/>
+      <c r="A32" s="80"/>
       <c r="B32" s="17"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
@@ -7517,12 +7563,12 @@
       <c r="K32" s="26"/>
     </row>
     <row r="33" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="81"/>
+      <c r="A33" s="80"/>
       <c r="B33" s="17"/>
-      <c r="C33" s="74"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
@@ -7530,12 +7576,12 @@
       <c r="K33" s="26"/>
     </row>
     <row r="34" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="81"/>
+      <c r="A34" s="80"/>
       <c r="B34" s="17"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
@@ -7543,12 +7589,12 @@
       <c r="K34" s="26"/>
     </row>
     <row r="35" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="81"/>
+      <c r="A35" s="80"/>
       <c r="B35" s="17"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
@@ -7556,12 +7602,12 @@
       <c r="K35" s="26"/>
     </row>
     <row r="36" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="81"/>
+      <c r="A36" s="80"/>
       <c r="B36" s="17"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="74"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
@@ -7569,12 +7615,12 @@
       <c r="K36" s="26"/>
     </row>
     <row r="37" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="81"/>
+      <c r="A37" s="80"/>
       <c r="B37" s="17"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
@@ -7582,12 +7628,12 @@
       <c r="K37" s="26"/>
     </row>
     <row r="38" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="81"/>
+      <c r="A38" s="80"/>
       <c r="B38" s="17"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
@@ -7595,12 +7641,12 @@
       <c r="K38" s="26"/>
     </row>
     <row r="39" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="81"/>
+      <c r="A39" s="80"/>
       <c r="B39" s="17"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
@@ -7608,12 +7654,12 @@
       <c r="K39" s="26"/>
     </row>
     <row r="40" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="81"/>
+      <c r="A40" s="80"/>
       <c r="B40" s="17"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
@@ -7621,12 +7667,12 @@
       <c r="K40" s="26"/>
     </row>
     <row r="41" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="81"/>
+      <c r="A41" s="80"/>
       <c r="B41" s="17"/>
-      <c r="C41" s="74"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="74"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
@@ -7634,12 +7680,12 @@
       <c r="K41" s="26"/>
     </row>
     <row r="42" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="81"/>
+      <c r="A42" s="80"/>
       <c r="B42" s="17"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
       <c r="G42" s="17"/>
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
@@ -7647,12 +7693,12 @@
       <c r="K42" s="26"/>
     </row>
     <row r="43" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="81"/>
+      <c r="A43" s="80"/>
       <c r="B43" s="17"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="74"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
       <c r="I43" s="17"/>
@@ -7660,12 +7706,12 @@
       <c r="K43" s="26"/>
     </row>
     <row r="44" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="81"/>
+      <c r="A44" s="80"/>
       <c r="B44" s="17"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
@@ -7673,12 +7719,12 @@
       <c r="K44" s="26"/>
     </row>
     <row r="45" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="81"/>
+      <c r="A45" s="80"/>
       <c r="B45" s="17"/>
-      <c r="C45" s="74"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="74"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
       <c r="I45" s="17"/>
@@ -7686,12 +7732,12 @@
       <c r="K45" s="26"/>
     </row>
     <row r="46" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="81"/>
+      <c r="A46" s="80"/>
       <c r="B46" s="17"/>
-      <c r="C46" s="74"/>
-      <c r="D46" s="74"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="74"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
@@ -7699,12 +7745,12 @@
       <c r="K46" s="26"/>
     </row>
     <row r="47" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="81"/>
+      <c r="A47" s="80"/>
       <c r="B47" s="17"/>
-      <c r="C47" s="74"/>
-      <c r="D47" s="78"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="73"/>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
@@ -7712,12 +7758,12 @@
       <c r="K47" s="26"/>
     </row>
     <row r="48" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="81"/>
+      <c r="A48" s="80"/>
       <c r="B48" s="17"/>
-      <c r="C48" s="82"/>
+      <c r="C48" s="81"/>
       <c r="D48" s="28"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="74"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73"/>
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
@@ -7725,12 +7771,12 @@
       <c r="K48" s="26"/>
     </row>
     <row r="49" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="81"/>
+      <c r="A49" s="80"/>
       <c r="B49" s="17"/>
-      <c r="C49" s="82"/>
+      <c r="C49" s="81"/>
       <c r="D49" s="31"/>
-      <c r="E49" s="74"/>
-      <c r="F49" s="74"/>
+      <c r="E49" s="73"/>
+      <c r="F49" s="73"/>
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
       <c r="I49" s="17"/>
@@ -7738,12 +7784,12 @@
       <c r="K49" s="26"/>
     </row>
     <row r="50" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="81"/>
+      <c r="A50" s="80"/>
       <c r="B50" s="17"/>
-      <c r="C50" s="82"/>
+      <c r="C50" s="81"/>
       <c r="D50" s="28"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="74"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="73"/>
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
@@ -7751,12 +7797,12 @@
       <c r="K50" s="26"/>
     </row>
     <row r="51" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="83"/>
+      <c r="A51" s="82"/>
       <c r="B51" s="36"/>
       <c r="C51" s="32"/>
       <c r="D51" s="31"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="78"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="77"/>
       <c r="G51" s="36"/>
       <c r="H51" s="36"/>
       <c r="I51" s="36"/>
@@ -7773,7 +7819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:IU15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -8588,7 +8634,7 @@
       <c r="IU3" s="26"/>
     </row>
     <row r="4" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="79">
+      <c r="A4" s="78">
         <v>42736</v>
       </c>
       <c r="B4" s="4"/>
@@ -8855,7 +8901,7 @@
       <c r="IU4" s="26"/>
     </row>
     <row r="5" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="79">
+      <c r="A5" s="78">
         <v>42736</v>
       </c>
       <c r="B5" s="4"/>
@@ -9122,7 +9168,7 @@
       <c r="IU5" s="26"/>
     </row>
     <row r="6" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="79">
+      <c r="A6" s="78">
         <v>42736</v>
       </c>
       <c r="B6" s="4"/>
@@ -9389,7 +9435,7 @@
       <c r="IU6" s="26"/>
     </row>
     <row r="7" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="79">
+      <c r="A7" s="78">
         <v>42736</v>
       </c>
       <c r="B7" s="4"/>
@@ -9656,7 +9702,7 @@
       <c r="IU7" s="26"/>
     </row>
     <row r="8" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="79">
+      <c r="A8" s="78">
         <v>42736</v>
       </c>
       <c r="B8" s="4"/>
@@ -9923,7 +9969,7 @@
       <c r="IU8" s="26"/>
     </row>
     <row r="9" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="79">
+      <c r="A9" s="78">
         <v>42736</v>
       </c>
       <c r="B9" s="4"/>
@@ -10190,7 +10236,7 @@
       <c r="IU9" s="26"/>
     </row>
     <row r="10" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="79">
+      <c r="A10" s="78">
         <v>42736</v>
       </c>
       <c r="B10" s="4"/>
@@ -10457,7 +10503,7 @@
       <c r="IU10" s="26"/>
     </row>
     <row r="11" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="79">
+      <c r="A11" s="78">
         <v>42736</v>
       </c>
       <c r="B11" s="4"/>
@@ -10724,7 +10770,7 @@
       <c r="IU11" s="26"/>
     </row>
     <row r="12" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="79">
+      <c r="A12" s="78">
         <v>42736</v>
       </c>
       <c r="B12" s="4"/>
@@ -10991,7 +11037,7 @@
       <c r="IU12" s="26"/>
     </row>
     <row r="13" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="79">
+      <c r="A13" s="78">
         <v>42736</v>
       </c>
       <c r="B13" s="4"/>
@@ -11258,7 +11304,7 @@
       <c r="IU13" s="26"/>
     </row>
     <row r="14" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="79">
+      <c r="A14" s="78">
         <v>42736</v>
       </c>
       <c r="B14" s="4"/>
@@ -11525,7 +11571,7 @@
       <c r="IU14" s="26"/>
     </row>
     <row r="15" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="79">
+      <c r="A15" s="78">
         <v>42736</v>
       </c>
       <c r="B15" s="4"/>
@@ -11801,7 +11847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:IU15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -11810,870 +11856,870 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" style="100" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="100" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="100" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="100" customWidth="1"/>
-    <col min="5" max="255" width="14.5" style="100" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" style="99" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="99" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="99" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="99" customWidth="1"/>
+    <col min="5" max="255" width="14.5" style="99" customWidth="1"/>
     <col min="256" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:255" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="100" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="107"/>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="107"/>
-      <c r="AB1" s="107"/>
-      <c r="AC1" s="107"/>
-      <c r="AD1" s="107"/>
-      <c r="AE1" s="107"/>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="107"/>
-      <c r="AH1" s="107"/>
-      <c r="AI1" s="107"/>
-      <c r="AJ1" s="107"/>
-      <c r="AK1" s="107"/>
-      <c r="AL1" s="107"/>
-      <c r="AM1" s="107"/>
-      <c r="AN1" s="107"/>
-      <c r="AO1" s="107"/>
-      <c r="AP1" s="107"/>
-      <c r="AQ1" s="107"/>
-      <c r="AR1" s="107"/>
-      <c r="AS1" s="107"/>
-      <c r="AT1" s="107"/>
-      <c r="AU1" s="107"/>
-      <c r="AV1" s="107"/>
-      <c r="AW1" s="107"/>
-      <c r="AX1" s="107"/>
-      <c r="AY1" s="107"/>
-      <c r="AZ1" s="107"/>
-      <c r="BA1" s="107"/>
-      <c r="BB1" s="107"/>
-      <c r="BC1" s="107"/>
-      <c r="BD1" s="107"/>
-      <c r="BE1" s="107"/>
-      <c r="BF1" s="107"/>
-      <c r="BG1" s="107"/>
-      <c r="BH1" s="107"/>
-      <c r="BI1" s="107"/>
-      <c r="BJ1" s="107"/>
-      <c r="BK1" s="107"/>
-      <c r="BL1" s="107"/>
-      <c r="BM1" s="107"/>
-      <c r="BN1" s="107"/>
-      <c r="BO1" s="107"/>
-      <c r="BP1" s="107"/>
-      <c r="BQ1" s="107"/>
-      <c r="BR1" s="107"/>
-      <c r="BS1" s="107"/>
-      <c r="BT1" s="107"/>
-      <c r="BU1" s="107"/>
-      <c r="BV1" s="107"/>
-      <c r="BW1" s="107"/>
-      <c r="BX1" s="107"/>
-      <c r="BY1" s="107"/>
-      <c r="BZ1" s="107"/>
-      <c r="CA1" s="107"/>
-      <c r="CB1" s="107"/>
-      <c r="CC1" s="107"/>
-      <c r="CD1" s="107"/>
-      <c r="CE1" s="107"/>
-      <c r="CF1" s="107"/>
-      <c r="CG1" s="107"/>
-      <c r="CH1" s="107"/>
-      <c r="CI1" s="107"/>
-      <c r="CJ1" s="107"/>
-      <c r="CK1" s="107"/>
-      <c r="CL1" s="107"/>
-      <c r="CM1" s="107"/>
-      <c r="CN1" s="107"/>
-      <c r="CO1" s="107"/>
-      <c r="CP1" s="107"/>
-      <c r="CQ1" s="107"/>
-      <c r="CR1" s="107"/>
-      <c r="CS1" s="107"/>
-      <c r="CT1" s="107"/>
-      <c r="CU1" s="107"/>
-      <c r="CV1" s="107"/>
-      <c r="CW1" s="107"/>
-      <c r="CX1" s="107"/>
-      <c r="CY1" s="107"/>
-      <c r="CZ1" s="107"/>
-      <c r="DA1" s="107"/>
-      <c r="DB1" s="107"/>
-      <c r="DC1" s="107"/>
-      <c r="DD1" s="107"/>
-      <c r="DE1" s="107"/>
-      <c r="DF1" s="107"/>
-      <c r="DG1" s="107"/>
-      <c r="DH1" s="107"/>
-      <c r="DI1" s="107"/>
-      <c r="DJ1" s="107"/>
-      <c r="DK1" s="107"/>
-      <c r="DL1" s="107"/>
-      <c r="DM1" s="107"/>
-      <c r="DN1" s="107"/>
-      <c r="DO1" s="107"/>
-      <c r="DP1" s="107"/>
-      <c r="DQ1" s="107"/>
-      <c r="DR1" s="107"/>
-      <c r="DS1" s="107"/>
-      <c r="DT1" s="107"/>
-      <c r="DU1" s="107"/>
-      <c r="DV1" s="107"/>
-      <c r="DW1" s="107"/>
-      <c r="DX1" s="107"/>
-      <c r="DY1" s="107"/>
-      <c r="DZ1" s="107"/>
-      <c r="EA1" s="107"/>
-      <c r="EB1" s="107"/>
-      <c r="EC1" s="107"/>
-      <c r="ED1" s="107"/>
-      <c r="EE1" s="107"/>
-      <c r="EF1" s="107"/>
-      <c r="EG1" s="107"/>
-      <c r="EH1" s="107"/>
-      <c r="EI1" s="107"/>
-      <c r="EJ1" s="107"/>
-      <c r="EK1" s="107"/>
-      <c r="EL1" s="107"/>
-      <c r="EM1" s="107"/>
-      <c r="EN1" s="107"/>
-      <c r="EO1" s="107"/>
-      <c r="EP1" s="107"/>
-      <c r="EQ1" s="107"/>
-      <c r="ER1" s="107"/>
-      <c r="ES1" s="107"/>
-      <c r="ET1" s="107"/>
-      <c r="EU1" s="107"/>
-      <c r="EV1" s="107"/>
-      <c r="EW1" s="107"/>
-      <c r="EX1" s="107"/>
-      <c r="EY1" s="107"/>
-      <c r="EZ1" s="107"/>
-      <c r="FA1" s="107"/>
-      <c r="FB1" s="107"/>
-      <c r="FC1" s="107"/>
-      <c r="FD1" s="107"/>
-      <c r="FE1" s="107"/>
-      <c r="FF1" s="107"/>
-      <c r="FG1" s="107"/>
-      <c r="FH1" s="107"/>
-      <c r="FI1" s="107"/>
-      <c r="FJ1" s="107"/>
-      <c r="FK1" s="107"/>
-      <c r="FL1" s="107"/>
-      <c r="FM1" s="107"/>
-      <c r="FN1" s="107"/>
-      <c r="FO1" s="107"/>
-      <c r="FP1" s="107"/>
-      <c r="FQ1" s="107"/>
-      <c r="FR1" s="107"/>
-      <c r="FS1" s="107"/>
-      <c r="FT1" s="107"/>
-      <c r="FU1" s="107"/>
-      <c r="FV1" s="107"/>
-      <c r="FW1" s="107"/>
-      <c r="FX1" s="107"/>
-      <c r="FY1" s="107"/>
-      <c r="FZ1" s="107"/>
-      <c r="GA1" s="107"/>
-      <c r="GB1" s="107"/>
-      <c r="GC1" s="107"/>
-      <c r="GD1" s="107"/>
-      <c r="GE1" s="107"/>
-      <c r="GF1" s="107"/>
-      <c r="GG1" s="107"/>
-      <c r="GH1" s="107"/>
-      <c r="GI1" s="107"/>
-      <c r="GJ1" s="107"/>
-      <c r="GK1" s="107"/>
-      <c r="GL1" s="107"/>
-      <c r="GM1" s="107"/>
-      <c r="GN1" s="107"/>
-      <c r="GO1" s="107"/>
-      <c r="GP1" s="107"/>
-      <c r="GQ1" s="107"/>
-      <c r="GR1" s="107"/>
-      <c r="GS1" s="107"/>
-      <c r="GT1" s="107"/>
-      <c r="GU1" s="107"/>
-      <c r="GV1" s="107"/>
-      <c r="GW1" s="107"/>
-      <c r="GX1" s="107"/>
-      <c r="GY1" s="107"/>
-      <c r="GZ1" s="107"/>
-      <c r="HA1" s="107"/>
-      <c r="HB1" s="107"/>
-      <c r="HC1" s="107"/>
-      <c r="HD1" s="107"/>
-      <c r="HE1" s="107"/>
-      <c r="HF1" s="107"/>
-      <c r="HG1" s="107"/>
-      <c r="HH1" s="107"/>
-      <c r="HI1" s="107"/>
-      <c r="HJ1" s="107"/>
-      <c r="HK1" s="107"/>
-      <c r="HL1" s="107"/>
-      <c r="HM1" s="107"/>
-      <c r="HN1" s="107"/>
-      <c r="HO1" s="107"/>
-      <c r="HP1" s="107"/>
-      <c r="HQ1" s="107"/>
-      <c r="HR1" s="107"/>
-      <c r="HS1" s="107"/>
-      <c r="HT1" s="107"/>
-      <c r="HU1" s="107"/>
-      <c r="HV1" s="107"/>
-      <c r="HW1" s="107"/>
-      <c r="HX1" s="107"/>
-      <c r="HY1" s="107"/>
-      <c r="HZ1" s="107"/>
-      <c r="IA1" s="107"/>
-      <c r="IB1" s="107"/>
-      <c r="IC1" s="107"/>
-      <c r="ID1" s="107"/>
-      <c r="IE1" s="107"/>
-      <c r="IF1" s="107"/>
-      <c r="IG1" s="107"/>
-      <c r="IH1" s="107"/>
-      <c r="II1" s="107"/>
-      <c r="IJ1" s="107"/>
-      <c r="IK1" s="107"/>
-      <c r="IL1" s="107"/>
-      <c r="IM1" s="107"/>
-      <c r="IN1" s="107"/>
-      <c r="IO1" s="107"/>
-      <c r="IP1" s="107"/>
-      <c r="IQ1" s="107"/>
-      <c r="IR1" s="107"/>
-      <c r="IS1" s="107"/>
-      <c r="IT1" s="107"/>
-      <c r="IU1" s="108"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="106"/>
+      <c r="AD1" s="106"/>
+      <c r="AE1" s="106"/>
+      <c r="AF1" s="106"/>
+      <c r="AG1" s="106"/>
+      <c r="AH1" s="106"/>
+      <c r="AI1" s="106"/>
+      <c r="AJ1" s="106"/>
+      <c r="AK1" s="106"/>
+      <c r="AL1" s="106"/>
+      <c r="AM1" s="106"/>
+      <c r="AN1" s="106"/>
+      <c r="AO1" s="106"/>
+      <c r="AP1" s="106"/>
+      <c r="AQ1" s="106"/>
+      <c r="AR1" s="106"/>
+      <c r="AS1" s="106"/>
+      <c r="AT1" s="106"/>
+      <c r="AU1" s="106"/>
+      <c r="AV1" s="106"/>
+      <c r="AW1" s="106"/>
+      <c r="AX1" s="106"/>
+      <c r="AY1" s="106"/>
+      <c r="AZ1" s="106"/>
+      <c r="BA1" s="106"/>
+      <c r="BB1" s="106"/>
+      <c r="BC1" s="106"/>
+      <c r="BD1" s="106"/>
+      <c r="BE1" s="106"/>
+      <c r="BF1" s="106"/>
+      <c r="BG1" s="106"/>
+      <c r="BH1" s="106"/>
+      <c r="BI1" s="106"/>
+      <c r="BJ1" s="106"/>
+      <c r="BK1" s="106"/>
+      <c r="BL1" s="106"/>
+      <c r="BM1" s="106"/>
+      <c r="BN1" s="106"/>
+      <c r="BO1" s="106"/>
+      <c r="BP1" s="106"/>
+      <c r="BQ1" s="106"/>
+      <c r="BR1" s="106"/>
+      <c r="BS1" s="106"/>
+      <c r="BT1" s="106"/>
+      <c r="BU1" s="106"/>
+      <c r="BV1" s="106"/>
+      <c r="BW1" s="106"/>
+      <c r="BX1" s="106"/>
+      <c r="BY1" s="106"/>
+      <c r="BZ1" s="106"/>
+      <c r="CA1" s="106"/>
+      <c r="CB1" s="106"/>
+      <c r="CC1" s="106"/>
+      <c r="CD1" s="106"/>
+      <c r="CE1" s="106"/>
+      <c r="CF1" s="106"/>
+      <c r="CG1" s="106"/>
+      <c r="CH1" s="106"/>
+      <c r="CI1" s="106"/>
+      <c r="CJ1" s="106"/>
+      <c r="CK1" s="106"/>
+      <c r="CL1" s="106"/>
+      <c r="CM1" s="106"/>
+      <c r="CN1" s="106"/>
+      <c r="CO1" s="106"/>
+      <c r="CP1" s="106"/>
+      <c r="CQ1" s="106"/>
+      <c r="CR1" s="106"/>
+      <c r="CS1" s="106"/>
+      <c r="CT1" s="106"/>
+      <c r="CU1" s="106"/>
+      <c r="CV1" s="106"/>
+      <c r="CW1" s="106"/>
+      <c r="CX1" s="106"/>
+      <c r="CY1" s="106"/>
+      <c r="CZ1" s="106"/>
+      <c r="DA1" s="106"/>
+      <c r="DB1" s="106"/>
+      <c r="DC1" s="106"/>
+      <c r="DD1" s="106"/>
+      <c r="DE1" s="106"/>
+      <c r="DF1" s="106"/>
+      <c r="DG1" s="106"/>
+      <c r="DH1" s="106"/>
+      <c r="DI1" s="106"/>
+      <c r="DJ1" s="106"/>
+      <c r="DK1" s="106"/>
+      <c r="DL1" s="106"/>
+      <c r="DM1" s="106"/>
+      <c r="DN1" s="106"/>
+      <c r="DO1" s="106"/>
+      <c r="DP1" s="106"/>
+      <c r="DQ1" s="106"/>
+      <c r="DR1" s="106"/>
+      <c r="DS1" s="106"/>
+      <c r="DT1" s="106"/>
+      <c r="DU1" s="106"/>
+      <c r="DV1" s="106"/>
+      <c r="DW1" s="106"/>
+      <c r="DX1" s="106"/>
+      <c r="DY1" s="106"/>
+      <c r="DZ1" s="106"/>
+      <c r="EA1" s="106"/>
+      <c r="EB1" s="106"/>
+      <c r="EC1" s="106"/>
+      <c r="ED1" s="106"/>
+      <c r="EE1" s="106"/>
+      <c r="EF1" s="106"/>
+      <c r="EG1" s="106"/>
+      <c r="EH1" s="106"/>
+      <c r="EI1" s="106"/>
+      <c r="EJ1" s="106"/>
+      <c r="EK1" s="106"/>
+      <c r="EL1" s="106"/>
+      <c r="EM1" s="106"/>
+      <c r="EN1" s="106"/>
+      <c r="EO1" s="106"/>
+      <c r="EP1" s="106"/>
+      <c r="EQ1" s="106"/>
+      <c r="ER1" s="106"/>
+      <c r="ES1" s="106"/>
+      <c r="ET1" s="106"/>
+      <c r="EU1" s="106"/>
+      <c r="EV1" s="106"/>
+      <c r="EW1" s="106"/>
+      <c r="EX1" s="106"/>
+      <c r="EY1" s="106"/>
+      <c r="EZ1" s="106"/>
+      <c r="FA1" s="106"/>
+      <c r="FB1" s="106"/>
+      <c r="FC1" s="106"/>
+      <c r="FD1" s="106"/>
+      <c r="FE1" s="106"/>
+      <c r="FF1" s="106"/>
+      <c r="FG1" s="106"/>
+      <c r="FH1" s="106"/>
+      <c r="FI1" s="106"/>
+      <c r="FJ1" s="106"/>
+      <c r="FK1" s="106"/>
+      <c r="FL1" s="106"/>
+      <c r="FM1" s="106"/>
+      <c r="FN1" s="106"/>
+      <c r="FO1" s="106"/>
+      <c r="FP1" s="106"/>
+      <c r="FQ1" s="106"/>
+      <c r="FR1" s="106"/>
+      <c r="FS1" s="106"/>
+      <c r="FT1" s="106"/>
+      <c r="FU1" s="106"/>
+      <c r="FV1" s="106"/>
+      <c r="FW1" s="106"/>
+      <c r="FX1" s="106"/>
+      <c r="FY1" s="106"/>
+      <c r="FZ1" s="106"/>
+      <c r="GA1" s="106"/>
+      <c r="GB1" s="106"/>
+      <c r="GC1" s="106"/>
+      <c r="GD1" s="106"/>
+      <c r="GE1" s="106"/>
+      <c r="GF1" s="106"/>
+      <c r="GG1" s="106"/>
+      <c r="GH1" s="106"/>
+      <c r="GI1" s="106"/>
+      <c r="GJ1" s="106"/>
+      <c r="GK1" s="106"/>
+      <c r="GL1" s="106"/>
+      <c r="GM1" s="106"/>
+      <c r="GN1" s="106"/>
+      <c r="GO1" s="106"/>
+      <c r="GP1" s="106"/>
+      <c r="GQ1" s="106"/>
+      <c r="GR1" s="106"/>
+      <c r="GS1" s="106"/>
+      <c r="GT1" s="106"/>
+      <c r="GU1" s="106"/>
+      <c r="GV1" s="106"/>
+      <c r="GW1" s="106"/>
+      <c r="GX1" s="106"/>
+      <c r="GY1" s="106"/>
+      <c r="GZ1" s="106"/>
+      <c r="HA1" s="106"/>
+      <c r="HB1" s="106"/>
+      <c r="HC1" s="106"/>
+      <c r="HD1" s="106"/>
+      <c r="HE1" s="106"/>
+      <c r="HF1" s="106"/>
+      <c r="HG1" s="106"/>
+      <c r="HH1" s="106"/>
+      <c r="HI1" s="106"/>
+      <c r="HJ1" s="106"/>
+      <c r="HK1" s="106"/>
+      <c r="HL1" s="106"/>
+      <c r="HM1" s="106"/>
+      <c r="HN1" s="106"/>
+      <c r="HO1" s="106"/>
+      <c r="HP1" s="106"/>
+      <c r="HQ1" s="106"/>
+      <c r="HR1" s="106"/>
+      <c r="HS1" s="106"/>
+      <c r="HT1" s="106"/>
+      <c r="HU1" s="106"/>
+      <c r="HV1" s="106"/>
+      <c r="HW1" s="106"/>
+      <c r="HX1" s="106"/>
+      <c r="HY1" s="106"/>
+      <c r="HZ1" s="106"/>
+      <c r="IA1" s="106"/>
+      <c r="IB1" s="106"/>
+      <c r="IC1" s="106"/>
+      <c r="ID1" s="106"/>
+      <c r="IE1" s="106"/>
+      <c r="IF1" s="106"/>
+      <c r="IG1" s="106"/>
+      <c r="IH1" s="106"/>
+      <c r="II1" s="106"/>
+      <c r="IJ1" s="106"/>
+      <c r="IK1" s="106"/>
+      <c r="IL1" s="106"/>
+      <c r="IM1" s="106"/>
+      <c r="IN1" s="106"/>
+      <c r="IO1" s="106"/>
+      <c r="IP1" s="106"/>
+      <c r="IQ1" s="106"/>
+      <c r="IR1" s="106"/>
+      <c r="IS1" s="106"/>
+      <c r="IT1" s="106"/>
+      <c r="IU1" s="107"/>
     </row>
     <row r="2" spans="1:255" ht="65" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="110" t="s">
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="110" t="s">
+      <c r="D2" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="110" t="s">
+      <c r="E2" s="109" t="s">
         <v>260</v>
       </c>
-      <c r="F2" s="110" t="s">
+      <c r="F2" s="109" t="s">
         <v>246</v>
       </c>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="111"/>
-      <c r="IU2" s="112"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="110"/>
+      <c r="IU2" s="111"/>
     </row>
     <row r="3" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="114" t="s">
+      <c r="C3" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="114" t="s">
+      <c r="D3" s="113" t="s">
         <v>263</v>
       </c>
-      <c r="E3" s="114" t="s">
+      <c r="E3" s="113" t="s">
         <v>247</v>
       </c>
-      <c r="F3" s="113" t="s">
+      <c r="F3" s="112" t="s">
         <v>248</v>
       </c>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="111"/>
-      <c r="IU3" s="112"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="110"/>
+      <c r="IU3" s="111"/>
     </row>
     <row r="4" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="115">
-        <v>42736</v>
-      </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="116" t="s">
+      <c r="A4" s="114">
+        <v>42736</v>
+      </c>
+      <c r="B4" s="104"/>
+      <c r="C4" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="115" t="s">
         <v>145</v>
       </c>
-      <c r="E4" s="116" t="s">
+      <c r="E4" s="115" t="s">
         <v>249</v>
       </c>
-      <c r="F4" s="116" t="s">
+      <c r="F4" s="115" t="s">
         <v>250</v>
       </c>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="111"/>
-      <c r="IU4" s="112"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="110"/>
+      <c r="IU4" s="111"/>
     </row>
     <row r="5" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="115">
-        <v>42736</v>
-      </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="116" t="s">
+      <c r="A5" s="114">
+        <v>42736</v>
+      </c>
+      <c r="B5" s="104"/>
+      <c r="C5" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="115" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="116" t="s">
+      <c r="E5" s="115" t="s">
         <v>253</v>
       </c>
-      <c r="F5" s="116" t="s">
+      <c r="F5" s="115" t="s">
         <v>261</v>
       </c>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="111"/>
-      <c r="IU5" s="112"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="110"/>
+      <c r="IU5" s="111"/>
     </row>
     <row r="6" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="115">
-        <v>42736</v>
-      </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="116" t="s">
+      <c r="A6" s="114">
+        <v>42736</v>
+      </c>
+      <c r="B6" s="104"/>
+      <c r="C6" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="116" t="s">
+      <c r="D6" s="115" t="s">
         <v>147</v>
       </c>
-      <c r="E6" s="116" t="s">
+      <c r="E6" s="115" t="s">
         <v>249</v>
       </c>
-      <c r="F6" s="116" t="s">
+      <c r="F6" s="115" t="s">
         <v>261</v>
       </c>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="111"/>
-      <c r="IU6" s="112"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="110"/>
+      <c r="IU6" s="111"/>
     </row>
     <row r="7" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="115">
-        <v>42736</v>
-      </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="116" t="s">
+      <c r="A7" s="114">
+        <v>42736</v>
+      </c>
+      <c r="B7" s="104"/>
+      <c r="C7" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="116" t="s">
+      <c r="D7" s="115" t="s">
         <v>147</v>
       </c>
-      <c r="E7" s="116" t="s">
+      <c r="E7" s="115" t="s">
         <v>251</v>
       </c>
-      <c r="F7" s="116" t="s">
+      <c r="F7" s="115" t="s">
         <v>261</v>
       </c>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="111"/>
-      <c r="IU7" s="112"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="110"/>
+      <c r="IU7" s="111"/>
     </row>
     <row r="8" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="115">
-        <v>42736</v>
-      </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="116" t="s">
+      <c r="A8" s="114">
+        <v>42736</v>
+      </c>
+      <c r="B8" s="104"/>
+      <c r="C8" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="116" t="s">
+      <c r="D8" s="115" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="116" t="s">
+      <c r="E8" s="115" t="s">
         <v>251</v>
       </c>
-      <c r="F8" s="116" t="s">
+      <c r="F8" s="115" t="s">
         <v>261</v>
       </c>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="111"/>
-      <c r="IU8" s="112"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="110"/>
+      <c r="IU8" s="111"/>
     </row>
     <row r="9" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="115">
-        <v>42736</v>
-      </c>
-      <c r="B9" s="105"/>
-      <c r="C9" s="116" t="s">
+      <c r="A9" s="114">
+        <v>42736</v>
+      </c>
+      <c r="B9" s="104"/>
+      <c r="C9" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="115" t="s">
         <v>149</v>
       </c>
-      <c r="E9" s="116" t="s">
+      <c r="E9" s="115" t="s">
         <v>253</v>
       </c>
-      <c r="F9" s="116" t="s">
+      <c r="F9" s="115" t="s">
         <v>252</v>
       </c>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="111"/>
-      <c r="IU9" s="112"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="110"/>
+      <c r="IU9" s="111"/>
     </row>
     <row r="10" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="115">
-        <v>42736</v>
-      </c>
-      <c r="B10" s="105"/>
-      <c r="C10" s="116" t="s">
+      <c r="A10" s="114">
+        <v>42736</v>
+      </c>
+      <c r="B10" s="104"/>
+      <c r="C10" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="116" t="s">
+      <c r="D10" s="115" t="s">
         <v>145</v>
       </c>
-      <c r="E10" s="116" t="s">
+      <c r="E10" s="115" t="s">
         <v>249</v>
       </c>
-      <c r="F10" s="116" t="s">
+      <c r="F10" s="115" t="s">
         <v>250</v>
       </c>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="111"/>
-      <c r="IU10" s="112"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="110"/>
+      <c r="IU10" s="111"/>
     </row>
     <row r="11" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="115">
-        <v>42736</v>
-      </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="116" t="s">
+      <c r="A11" s="114">
+        <v>42736</v>
+      </c>
+      <c r="B11" s="104"/>
+      <c r="C11" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="116" t="s">
+      <c r="D11" s="115" t="s">
         <v>145</v>
       </c>
-      <c r="E11" s="116" t="s">
+      <c r="E11" s="115" t="s">
         <v>253</v>
       </c>
-      <c r="F11" s="116" t="s">
+      <c r="F11" s="115" t="s">
         <v>261</v>
       </c>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="111"/>
-      <c r="IU11" s="112"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="110"/>
+      <c r="IU11" s="111"/>
     </row>
     <row r="12" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="115">
-        <v>42736</v>
-      </c>
-      <c r="B12" s="105"/>
-      <c r="C12" s="116" t="s">
+      <c r="A12" s="114">
+        <v>42736</v>
+      </c>
+      <c r="B12" s="104"/>
+      <c r="C12" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="116" t="s">
+      <c r="D12" s="115" t="s">
         <v>147</v>
       </c>
-      <c r="E12" s="116" t="s">
+      <c r="E12" s="115" t="s">
         <v>249</v>
       </c>
-      <c r="F12" s="116" t="s">
+      <c r="F12" s="115" t="s">
         <v>261</v>
       </c>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="105"/>
-      <c r="L12" s="111"/>
-      <c r="IU12" s="112"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="110"/>
+      <c r="IU12" s="111"/>
     </row>
     <row r="13" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="115">
-        <v>42736</v>
-      </c>
-      <c r="B13" s="105"/>
-      <c r="C13" s="116" t="s">
+      <c r="A13" s="114">
+        <v>42736</v>
+      </c>
+      <c r="B13" s="104"/>
+      <c r="C13" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="116" t="s">
+      <c r="D13" s="115" t="s">
         <v>147</v>
       </c>
-      <c r="E13" s="116" t="s">
+      <c r="E13" s="115" t="s">
         <v>251</v>
       </c>
-      <c r="F13" s="116" t="s">
+      <c r="F13" s="115" t="s">
         <v>261</v>
       </c>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="111"/>
-      <c r="IU13" s="112"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="110"/>
+      <c r="IU13" s="111"/>
     </row>
     <row r="14" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="115">
-        <v>42736</v>
-      </c>
-      <c r="B14" s="105"/>
-      <c r="C14" s="116" t="s">
+      <c r="A14" s="114">
+        <v>42736</v>
+      </c>
+      <c r="B14" s="104"/>
+      <c r="C14" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="116" t="s">
+      <c r="D14" s="115" t="s">
         <v>149</v>
       </c>
-      <c r="E14" s="116" t="s">
+      <c r="E14" s="115" t="s">
         <v>251</v>
       </c>
-      <c r="F14" s="116" t="s">
+      <c r="F14" s="115" t="s">
         <v>261</v>
       </c>
-      <c r="G14" s="105"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="105"/>
-      <c r="J14" s="105"/>
-      <c r="K14" s="105"/>
-      <c r="L14" s="111"/>
-      <c r="IU14" s="112"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="110"/>
+      <c r="IU14" s="111"/>
     </row>
     <row r="15" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="115">
-        <v>42736</v>
-      </c>
-      <c r="B15" s="105"/>
-      <c r="C15" s="116" t="s">
+      <c r="A15" s="114">
+        <v>42736</v>
+      </c>
+      <c r="B15" s="104"/>
+      <c r="C15" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="116" t="s">
+      <c r="D15" s="115" t="s">
         <v>149</v>
       </c>
-      <c r="E15" s="116" t="s">
+      <c r="E15" s="115" t="s">
         <v>253</v>
       </c>
-      <c r="F15" s="116" t="s">
+      <c r="F15" s="115" t="s">
         <v>252</v>
       </c>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="117"/>
-      <c r="M15" s="118"/>
-      <c r="N15" s="118"/>
-      <c r="O15" s="118"/>
-      <c r="P15" s="118"/>
-      <c r="Q15" s="118"/>
-      <c r="R15" s="118"/>
-      <c r="S15" s="118"/>
-      <c r="T15" s="118"/>
-      <c r="U15" s="118"/>
-      <c r="V15" s="118"/>
-      <c r="W15" s="118"/>
-      <c r="X15" s="118"/>
-      <c r="Y15" s="118"/>
-      <c r="Z15" s="118"/>
-      <c r="AA15" s="118"/>
-      <c r="AB15" s="118"/>
-      <c r="AC15" s="118"/>
-      <c r="AD15" s="118"/>
-      <c r="AE15" s="118"/>
-      <c r="AF15" s="118"/>
-      <c r="AG15" s="118"/>
-      <c r="AH15" s="118"/>
-      <c r="AI15" s="118"/>
-      <c r="AJ15" s="118"/>
-      <c r="AK15" s="118"/>
-      <c r="AL15" s="118"/>
-      <c r="AM15" s="118"/>
-      <c r="AN15" s="118"/>
-      <c r="AO15" s="118"/>
-      <c r="AP15" s="118"/>
-      <c r="AQ15" s="118"/>
-      <c r="AR15" s="118"/>
-      <c r="AS15" s="118"/>
-      <c r="AT15" s="118"/>
-      <c r="AU15" s="118"/>
-      <c r="AV15" s="118"/>
-      <c r="AW15" s="118"/>
-      <c r="AX15" s="118"/>
-      <c r="AY15" s="118"/>
-      <c r="AZ15" s="118"/>
-      <c r="BA15" s="118"/>
-      <c r="BB15" s="118"/>
-      <c r="BC15" s="118"/>
-      <c r="BD15" s="118"/>
-      <c r="BE15" s="118"/>
-      <c r="BF15" s="118"/>
-      <c r="BG15" s="118"/>
-      <c r="BH15" s="118"/>
-      <c r="BI15" s="118"/>
-      <c r="BJ15" s="118"/>
-      <c r="BK15" s="118"/>
-      <c r="BL15" s="118"/>
-      <c r="BM15" s="118"/>
-      <c r="BN15" s="118"/>
-      <c r="BO15" s="118"/>
-      <c r="BP15" s="118"/>
-      <c r="BQ15" s="118"/>
-      <c r="BR15" s="118"/>
-      <c r="BS15" s="118"/>
-      <c r="BT15" s="118"/>
-      <c r="BU15" s="118"/>
-      <c r="BV15" s="118"/>
-      <c r="BW15" s="118"/>
-      <c r="BX15" s="118"/>
-      <c r="BY15" s="118"/>
-      <c r="BZ15" s="118"/>
-      <c r="CA15" s="118"/>
-      <c r="CB15" s="118"/>
-      <c r="CC15" s="118"/>
-      <c r="CD15" s="118"/>
-      <c r="CE15" s="118"/>
-      <c r="CF15" s="118"/>
-      <c r="CG15" s="118"/>
-      <c r="CH15" s="118"/>
-      <c r="CI15" s="118"/>
-      <c r="CJ15" s="118"/>
-      <c r="CK15" s="118"/>
-      <c r="CL15" s="118"/>
-      <c r="CM15" s="118"/>
-      <c r="CN15" s="118"/>
-      <c r="CO15" s="118"/>
-      <c r="CP15" s="118"/>
-      <c r="CQ15" s="118"/>
-      <c r="CR15" s="118"/>
-      <c r="CS15" s="118"/>
-      <c r="CT15" s="118"/>
-      <c r="CU15" s="118"/>
-      <c r="CV15" s="118"/>
-      <c r="CW15" s="118"/>
-      <c r="CX15" s="118"/>
-      <c r="CY15" s="118"/>
-      <c r="CZ15" s="118"/>
-      <c r="DA15" s="118"/>
-      <c r="DB15" s="118"/>
-      <c r="DC15" s="118"/>
-      <c r="DD15" s="118"/>
-      <c r="DE15" s="118"/>
-      <c r="DF15" s="118"/>
-      <c r="DG15" s="118"/>
-      <c r="DH15" s="118"/>
-      <c r="DI15" s="118"/>
-      <c r="DJ15" s="118"/>
-      <c r="DK15" s="118"/>
-      <c r="DL15" s="118"/>
-      <c r="DM15" s="118"/>
-      <c r="DN15" s="118"/>
-      <c r="DO15" s="118"/>
-      <c r="DP15" s="118"/>
-      <c r="DQ15" s="118"/>
-      <c r="DR15" s="118"/>
-      <c r="DS15" s="118"/>
-      <c r="DT15" s="118"/>
-      <c r="DU15" s="118"/>
-      <c r="DV15" s="118"/>
-      <c r="DW15" s="118"/>
-      <c r="DX15" s="118"/>
-      <c r="DY15" s="118"/>
-      <c r="DZ15" s="118"/>
-      <c r="EA15" s="118"/>
-      <c r="EB15" s="118"/>
-      <c r="EC15" s="118"/>
-      <c r="ED15" s="118"/>
-      <c r="EE15" s="118"/>
-      <c r="EF15" s="118"/>
-      <c r="EG15" s="118"/>
-      <c r="EH15" s="118"/>
-      <c r="EI15" s="118"/>
-      <c r="EJ15" s="118"/>
-      <c r="EK15" s="118"/>
-      <c r="EL15" s="118"/>
-      <c r="EM15" s="118"/>
-      <c r="EN15" s="118"/>
-      <c r="EO15" s="118"/>
-      <c r="EP15" s="118"/>
-      <c r="EQ15" s="118"/>
-      <c r="ER15" s="118"/>
-      <c r="ES15" s="118"/>
-      <c r="ET15" s="118"/>
-      <c r="EU15" s="118"/>
-      <c r="EV15" s="118"/>
-      <c r="EW15" s="118"/>
-      <c r="EX15" s="118"/>
-      <c r="EY15" s="118"/>
-      <c r="EZ15" s="118"/>
-      <c r="FA15" s="118"/>
-      <c r="FB15" s="118"/>
-      <c r="FC15" s="118"/>
-      <c r="FD15" s="118"/>
-      <c r="FE15" s="118"/>
-      <c r="FF15" s="118"/>
-      <c r="FG15" s="118"/>
-      <c r="FH15" s="118"/>
-      <c r="FI15" s="118"/>
-      <c r="FJ15" s="118"/>
-      <c r="FK15" s="118"/>
-      <c r="FL15" s="118"/>
-      <c r="FM15" s="118"/>
-      <c r="FN15" s="118"/>
-      <c r="FO15" s="118"/>
-      <c r="FP15" s="118"/>
-      <c r="FQ15" s="118"/>
-      <c r="FR15" s="118"/>
-      <c r="FS15" s="118"/>
-      <c r="FT15" s="118"/>
-      <c r="FU15" s="118"/>
-      <c r="FV15" s="118"/>
-      <c r="FW15" s="118"/>
-      <c r="FX15" s="118"/>
-      <c r="FY15" s="118"/>
-      <c r="FZ15" s="118"/>
-      <c r="GA15" s="118"/>
-      <c r="GB15" s="118"/>
-      <c r="GC15" s="118"/>
-      <c r="GD15" s="118"/>
-      <c r="GE15" s="118"/>
-      <c r="GF15" s="118"/>
-      <c r="GG15" s="118"/>
-      <c r="GH15" s="118"/>
-      <c r="GI15" s="118"/>
-      <c r="GJ15" s="118"/>
-      <c r="GK15" s="118"/>
-      <c r="GL15" s="118"/>
-      <c r="GM15" s="118"/>
-      <c r="GN15" s="118"/>
-      <c r="GO15" s="118"/>
-      <c r="GP15" s="118"/>
-      <c r="GQ15" s="118"/>
-      <c r="GR15" s="118"/>
-      <c r="GS15" s="118"/>
-      <c r="GT15" s="118"/>
-      <c r="GU15" s="118"/>
-      <c r="GV15" s="118"/>
-      <c r="GW15" s="118"/>
-      <c r="GX15" s="118"/>
-      <c r="GY15" s="118"/>
-      <c r="GZ15" s="118"/>
-      <c r="HA15" s="118"/>
-      <c r="HB15" s="118"/>
-      <c r="HC15" s="118"/>
-      <c r="HD15" s="118"/>
-      <c r="HE15" s="118"/>
-      <c r="HF15" s="118"/>
-      <c r="HG15" s="118"/>
-      <c r="HH15" s="118"/>
-      <c r="HI15" s="118"/>
-      <c r="HJ15" s="118"/>
-      <c r="HK15" s="118"/>
-      <c r="HL15" s="118"/>
-      <c r="HM15" s="118"/>
-      <c r="HN15" s="118"/>
-      <c r="HO15" s="118"/>
-      <c r="HP15" s="118"/>
-      <c r="HQ15" s="118"/>
-      <c r="HR15" s="118"/>
-      <c r="HS15" s="118"/>
-      <c r="HT15" s="118"/>
-      <c r="HU15" s="118"/>
-      <c r="HV15" s="118"/>
-      <c r="HW15" s="118"/>
-      <c r="HX15" s="118"/>
-      <c r="HY15" s="118"/>
-      <c r="HZ15" s="118"/>
-      <c r="IA15" s="118"/>
-      <c r="IB15" s="118"/>
-      <c r="IC15" s="118"/>
-      <c r="ID15" s="118"/>
-      <c r="IE15" s="118"/>
-      <c r="IF15" s="118"/>
-      <c r="IG15" s="118"/>
-      <c r="IH15" s="118"/>
-      <c r="II15" s="118"/>
-      <c r="IJ15" s="118"/>
-      <c r="IK15" s="118"/>
-      <c r="IL15" s="118"/>
-      <c r="IM15" s="118"/>
-      <c r="IN15" s="118"/>
-      <c r="IO15" s="118"/>
-      <c r="IP15" s="118"/>
-      <c r="IQ15" s="118"/>
-      <c r="IR15" s="118"/>
-      <c r="IS15" s="118"/>
-      <c r="IT15" s="118"/>
-      <c r="IU15" s="119"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="116"/>
+      <c r="M15" s="117"/>
+      <c r="N15" s="117"/>
+      <c r="O15" s="117"/>
+      <c r="P15" s="117"/>
+      <c r="Q15" s="117"/>
+      <c r="R15" s="117"/>
+      <c r="S15" s="117"/>
+      <c r="T15" s="117"/>
+      <c r="U15" s="117"/>
+      <c r="V15" s="117"/>
+      <c r="W15" s="117"/>
+      <c r="X15" s="117"/>
+      <c r="Y15" s="117"/>
+      <c r="Z15" s="117"/>
+      <c r="AA15" s="117"/>
+      <c r="AB15" s="117"/>
+      <c r="AC15" s="117"/>
+      <c r="AD15" s="117"/>
+      <c r="AE15" s="117"/>
+      <c r="AF15" s="117"/>
+      <c r="AG15" s="117"/>
+      <c r="AH15" s="117"/>
+      <c r="AI15" s="117"/>
+      <c r="AJ15" s="117"/>
+      <c r="AK15" s="117"/>
+      <c r="AL15" s="117"/>
+      <c r="AM15" s="117"/>
+      <c r="AN15" s="117"/>
+      <c r="AO15" s="117"/>
+      <c r="AP15" s="117"/>
+      <c r="AQ15" s="117"/>
+      <c r="AR15" s="117"/>
+      <c r="AS15" s="117"/>
+      <c r="AT15" s="117"/>
+      <c r="AU15" s="117"/>
+      <c r="AV15" s="117"/>
+      <c r="AW15" s="117"/>
+      <c r="AX15" s="117"/>
+      <c r="AY15" s="117"/>
+      <c r="AZ15" s="117"/>
+      <c r="BA15" s="117"/>
+      <c r="BB15" s="117"/>
+      <c r="BC15" s="117"/>
+      <c r="BD15" s="117"/>
+      <c r="BE15" s="117"/>
+      <c r="BF15" s="117"/>
+      <c r="BG15" s="117"/>
+      <c r="BH15" s="117"/>
+      <c r="BI15" s="117"/>
+      <c r="BJ15" s="117"/>
+      <c r="BK15" s="117"/>
+      <c r="BL15" s="117"/>
+      <c r="BM15" s="117"/>
+      <c r="BN15" s="117"/>
+      <c r="BO15" s="117"/>
+      <c r="BP15" s="117"/>
+      <c r="BQ15" s="117"/>
+      <c r="BR15" s="117"/>
+      <c r="BS15" s="117"/>
+      <c r="BT15" s="117"/>
+      <c r="BU15" s="117"/>
+      <c r="BV15" s="117"/>
+      <c r="BW15" s="117"/>
+      <c r="BX15" s="117"/>
+      <c r="BY15" s="117"/>
+      <c r="BZ15" s="117"/>
+      <c r="CA15" s="117"/>
+      <c r="CB15" s="117"/>
+      <c r="CC15" s="117"/>
+      <c r="CD15" s="117"/>
+      <c r="CE15" s="117"/>
+      <c r="CF15" s="117"/>
+      <c r="CG15" s="117"/>
+      <c r="CH15" s="117"/>
+      <c r="CI15" s="117"/>
+      <c r="CJ15" s="117"/>
+      <c r="CK15" s="117"/>
+      <c r="CL15" s="117"/>
+      <c r="CM15" s="117"/>
+      <c r="CN15" s="117"/>
+      <c r="CO15" s="117"/>
+      <c r="CP15" s="117"/>
+      <c r="CQ15" s="117"/>
+      <c r="CR15" s="117"/>
+      <c r="CS15" s="117"/>
+      <c r="CT15" s="117"/>
+      <c r="CU15" s="117"/>
+      <c r="CV15" s="117"/>
+      <c r="CW15" s="117"/>
+      <c r="CX15" s="117"/>
+      <c r="CY15" s="117"/>
+      <c r="CZ15" s="117"/>
+      <c r="DA15" s="117"/>
+      <c r="DB15" s="117"/>
+      <c r="DC15" s="117"/>
+      <c r="DD15" s="117"/>
+      <c r="DE15" s="117"/>
+      <c r="DF15" s="117"/>
+      <c r="DG15" s="117"/>
+      <c r="DH15" s="117"/>
+      <c r="DI15" s="117"/>
+      <c r="DJ15" s="117"/>
+      <c r="DK15" s="117"/>
+      <c r="DL15" s="117"/>
+      <c r="DM15" s="117"/>
+      <c r="DN15" s="117"/>
+      <c r="DO15" s="117"/>
+      <c r="DP15" s="117"/>
+      <c r="DQ15" s="117"/>
+      <c r="DR15" s="117"/>
+      <c r="DS15" s="117"/>
+      <c r="DT15" s="117"/>
+      <c r="DU15" s="117"/>
+      <c r="DV15" s="117"/>
+      <c r="DW15" s="117"/>
+      <c r="DX15" s="117"/>
+      <c r="DY15" s="117"/>
+      <c r="DZ15" s="117"/>
+      <c r="EA15" s="117"/>
+      <c r="EB15" s="117"/>
+      <c r="EC15" s="117"/>
+      <c r="ED15" s="117"/>
+      <c r="EE15" s="117"/>
+      <c r="EF15" s="117"/>
+      <c r="EG15" s="117"/>
+      <c r="EH15" s="117"/>
+      <c r="EI15" s="117"/>
+      <c r="EJ15" s="117"/>
+      <c r="EK15" s="117"/>
+      <c r="EL15" s="117"/>
+      <c r="EM15" s="117"/>
+      <c r="EN15" s="117"/>
+      <c r="EO15" s="117"/>
+      <c r="EP15" s="117"/>
+      <c r="EQ15" s="117"/>
+      <c r="ER15" s="117"/>
+      <c r="ES15" s="117"/>
+      <c r="ET15" s="117"/>
+      <c r="EU15" s="117"/>
+      <c r="EV15" s="117"/>
+      <c r="EW15" s="117"/>
+      <c r="EX15" s="117"/>
+      <c r="EY15" s="117"/>
+      <c r="EZ15" s="117"/>
+      <c r="FA15" s="117"/>
+      <c r="FB15" s="117"/>
+      <c r="FC15" s="117"/>
+      <c r="FD15" s="117"/>
+      <c r="FE15" s="117"/>
+      <c r="FF15" s="117"/>
+      <c r="FG15" s="117"/>
+      <c r="FH15" s="117"/>
+      <c r="FI15" s="117"/>
+      <c r="FJ15" s="117"/>
+      <c r="FK15" s="117"/>
+      <c r="FL15" s="117"/>
+      <c r="FM15" s="117"/>
+      <c r="FN15" s="117"/>
+      <c r="FO15" s="117"/>
+      <c r="FP15" s="117"/>
+      <c r="FQ15" s="117"/>
+      <c r="FR15" s="117"/>
+      <c r="FS15" s="117"/>
+      <c r="FT15" s="117"/>
+      <c r="FU15" s="117"/>
+      <c r="FV15" s="117"/>
+      <c r="FW15" s="117"/>
+      <c r="FX15" s="117"/>
+      <c r="FY15" s="117"/>
+      <c r="FZ15" s="117"/>
+      <c r="GA15" s="117"/>
+      <c r="GB15" s="117"/>
+      <c r="GC15" s="117"/>
+      <c r="GD15" s="117"/>
+      <c r="GE15" s="117"/>
+      <c r="GF15" s="117"/>
+      <c r="GG15" s="117"/>
+      <c r="GH15" s="117"/>
+      <c r="GI15" s="117"/>
+      <c r="GJ15" s="117"/>
+      <c r="GK15" s="117"/>
+      <c r="GL15" s="117"/>
+      <c r="GM15" s="117"/>
+      <c r="GN15" s="117"/>
+      <c r="GO15" s="117"/>
+      <c r="GP15" s="117"/>
+      <c r="GQ15" s="117"/>
+      <c r="GR15" s="117"/>
+      <c r="GS15" s="117"/>
+      <c r="GT15" s="117"/>
+      <c r="GU15" s="117"/>
+      <c r="GV15" s="117"/>
+      <c r="GW15" s="117"/>
+      <c r="GX15" s="117"/>
+      <c r="GY15" s="117"/>
+      <c r="GZ15" s="117"/>
+      <c r="HA15" s="117"/>
+      <c r="HB15" s="117"/>
+      <c r="HC15" s="117"/>
+      <c r="HD15" s="117"/>
+      <c r="HE15" s="117"/>
+      <c r="HF15" s="117"/>
+      <c r="HG15" s="117"/>
+      <c r="HH15" s="117"/>
+      <c r="HI15" s="117"/>
+      <c r="HJ15" s="117"/>
+      <c r="HK15" s="117"/>
+      <c r="HL15" s="117"/>
+      <c r="HM15" s="117"/>
+      <c r="HN15" s="117"/>
+      <c r="HO15" s="117"/>
+      <c r="HP15" s="117"/>
+      <c r="HQ15" s="117"/>
+      <c r="HR15" s="117"/>
+      <c r="HS15" s="117"/>
+      <c r="HT15" s="117"/>
+      <c r="HU15" s="117"/>
+      <c r="HV15" s="117"/>
+      <c r="HW15" s="117"/>
+      <c r="HX15" s="117"/>
+      <c r="HY15" s="117"/>
+      <c r="HZ15" s="117"/>
+      <c r="IA15" s="117"/>
+      <c r="IB15" s="117"/>
+      <c r="IC15" s="117"/>
+      <c r="ID15" s="117"/>
+      <c r="IE15" s="117"/>
+      <c r="IF15" s="117"/>
+      <c r="IG15" s="117"/>
+      <c r="IH15" s="117"/>
+      <c r="II15" s="117"/>
+      <c r="IJ15" s="117"/>
+      <c r="IK15" s="117"/>
+      <c r="IL15" s="117"/>
+      <c r="IM15" s="117"/>
+      <c r="IN15" s="117"/>
+      <c r="IO15" s="117"/>
+      <c r="IP15" s="117"/>
+      <c r="IQ15" s="117"/>
+      <c r="IR15" s="117"/>
+      <c r="IS15" s="117"/>
+      <c r="IT15" s="117"/>
+      <c r="IU15" s="118"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
@@ -12685,7 +12731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -13053,7 +13099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
@@ -14337,7 +14383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
@@ -14682,7 +14728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -15606,7 +15652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -15986,11 +16032,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -16013,21 +16059,21 @@
     <col min="16" max="16" width="23.6640625" style="1" customWidth="1"/>
     <col min="17" max="17" width="31.1640625" style="1" customWidth="1"/>
     <col min="18" max="18" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="8.83203125" style="1" customWidth="1"/>
-    <col min="22" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="19" max="19" width="17.33203125" style="1" customWidth="1"/>
+    <col min="20" max="1023" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="131" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4"/>
@@ -16044,11 +16090,9 @@
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-    </row>
-    <row r="2" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S1" s="119"/>
+    </row>
+    <row r="2" spans="1:19" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
@@ -16093,27 +16137,27 @@
       <c r="P2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="42" t="s">
+      <c r="Q2" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-    </row>
-    <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S2" s="126" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="132" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -16152,17 +16196,17 @@
       <c r="P3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="43" t="s">
+      <c r="Q3" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="R3" s="43" t="s">
+      <c r="R3" s="42" t="s">
         <v>275</v>
       </c>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-    </row>
-    <row r="4" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S3" s="127" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>42736</v>
       </c>
@@ -16201,11 +16245,11 @@
       <c r="R4" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-    </row>
-    <row r="5" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S4" s="119" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>42736</v>
       </c>
@@ -16246,11 +16290,11 @@
       <c r="R5" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-    </row>
-    <row r="6" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S5" s="119" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>42736</v>
       </c>
@@ -16291,11 +16335,9 @@
       <c r="R6" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-    </row>
-    <row r="7" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S6" s="119"/>
+    </row>
+    <row r="7" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>42736</v>
       </c>
@@ -16334,11 +16376,9 @@
       <c r="R7" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-    </row>
-    <row r="8" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S7" s="119"/>
+    </row>
+    <row r="8" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>42736</v>
       </c>
@@ -16379,11 +16419,9 @@
       <c r="R8" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-    </row>
-    <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S8" s="119"/>
+    </row>
+    <row r="9" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>42736</v>
       </c>
@@ -16422,11 +16460,9 @@
       <c r="R9" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-    </row>
-    <row r="10" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S9" s="119"/>
+    </row>
+    <row r="10" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="4"/>
@@ -16445,11 +16481,9 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-    </row>
-    <row r="11" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S10" s="119"/>
+    </row>
+    <row r="11" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="4"/>
@@ -16468,11 +16502,9 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-    </row>
-    <row r="12" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S11" s="119"/>
+    </row>
+    <row r="12" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="4"/>
@@ -16491,11 +16523,9 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-    </row>
-    <row r="13" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S12" s="119"/>
+    </row>
+    <row r="13" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="4"/>
@@ -16514,11 +16544,9 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-    </row>
-    <row r="14" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S13" s="119"/>
+    </row>
+    <row r="14" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="4"/>
@@ -16537,11 +16565,9 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-    </row>
-    <row r="15" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S14" s="119"/>
+    </row>
+    <row r="15" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="4"/>
@@ -16560,11 +16586,9 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-    </row>
-    <row r="16" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S15" s="119"/>
+    </row>
+    <row r="16" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="4"/>
@@ -16583,11 +16607,9 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-    </row>
-    <row r="17" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S16" s="119"/>
+    </row>
+    <row r="17" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="4"/>
@@ -16606,11 +16628,9 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-    </row>
-    <row r="18" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S17" s="119"/>
+    </row>
+    <row r="18" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="4"/>
@@ -16629,11 +16649,9 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-    </row>
-    <row r="19" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S18" s="119"/>
+    </row>
+    <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="4"/>
@@ -16652,9 +16670,7 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
+      <c r="S19" s="119"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
@@ -16666,7 +16682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
@@ -16711,7 +16727,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="120"/>
+      <c r="K1" s="119"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -16744,7 +16760,7 @@
       <c r="J2" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="K2" s="121" t="s">
+      <c r="K2" s="120" t="s">
         <v>264</v>
       </c>
       <c r="L2" s="13" t="s">
@@ -16756,7 +16772,7 @@
       <c r="N2" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="O2" s="126" t="s">
+      <c r="O2" s="125" t="s">
         <v>274</v>
       </c>
       <c r="P2" s="12"/>
@@ -16793,7 +16809,7 @@
       <c r="J3" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K3" s="122" t="s">
+      <c r="K3" s="121" t="s">
         <v>265</v>
       </c>
       <c r="L3" s="7" t="s">
@@ -16879,7 +16895,7 @@
       <c r="J5" s="4">
         <v>2</v>
       </c>
-      <c r="K5" s="120" t="s">
+      <c r="K5" s="119" t="s">
         <v>267</v>
       </c>
       <c r="L5" s="4"/>
@@ -16918,7 +16934,7 @@
       <c r="J6" s="4">
         <v>1</v>
       </c>
-      <c r="K6" s="120" t="s">
+      <c r="K6" s="119" t="s">
         <v>267</v>
       </c>
       <c r="L6" s="4"/>
@@ -16953,7 +16969,7 @@
         <v>56</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="120" t="s">
+      <c r="K7" s="119" t="s">
         <v>267</v>
       </c>
       <c r="L7" s="4"/>
@@ -16988,7 +17004,7 @@
         <v>59</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="120" t="s">
+      <c r="K8" s="119" t="s">
         <v>267</v>
       </c>
       <c r="L8" s="3" t="s">
@@ -17027,7 +17043,7 @@
       <c r="J9" s="4">
         <v>1</v>
       </c>
-      <c r="K9" s="120" t="s">
+      <c r="K9" s="119" t="s">
         <v>267</v>
       </c>
       <c r="L9" s="4"/>
@@ -17066,7 +17082,7 @@
       <c r="J10" s="4">
         <v>1</v>
       </c>
-      <c r="K10" s="120" t="s">
+      <c r="K10" s="119" t="s">
         <v>195</v>
       </c>
       <c r="L10" s="4"/>
@@ -17107,7 +17123,7 @@
       <c r="J11" s="4">
         <v>2</v>
       </c>
-      <c r="K11" s="120" t="s">
+      <c r="K11" s="119" t="s">
         <v>267</v>
       </c>
       <c r="L11" s="4"/>
@@ -17148,7 +17164,7 @@
       <c r="J12" s="4">
         <v>1</v>
       </c>
-      <c r="K12" s="120" t="s">
+      <c r="K12" s="119" t="s">
         <v>267</v>
       </c>
       <c r="L12" s="4"/>
@@ -17171,7 +17187,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="120"/>
+      <c r="K13" s="119"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -17190,7 +17206,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="120"/>
+      <c r="K14" s="119"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -17209,7 +17225,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="120"/>
+      <c r="K15" s="119"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -17228,7 +17244,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="120"/>
+      <c r="K16" s="119"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -17247,7 +17263,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="120"/>
+      <c r="K17" s="119"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -17265,7 +17281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -17287,285 +17303,285 @@
       <c r="A1" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.15">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="48" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="49" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="53" t="s">
+      <c r="A4" s="51">
+        <v>42736</v>
+      </c>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="53" t="s">
+      <c r="A5" s="51">
+        <v>42736</v>
+      </c>
+      <c r="B5" s="51"/>
+      <c r="C5" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="46">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="53" t="s">
+      <c r="A6" s="51">
+        <v>42736</v>
+      </c>
+      <c r="B6" s="51"/>
+      <c r="C6" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="46">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="53" t="s">
+      <c r="A7" s="51">
+        <v>42736</v>
+      </c>
+      <c r="B7" s="51"/>
+      <c r="C7" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F7" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="53" t="s">
+      <c r="A8" s="51">
+        <v>42736</v>
+      </c>
+      <c r="B8" s="51"/>
+      <c r="C8" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="46">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="53" t="s">
+      <c r="A9" s="51">
+        <v>42736</v>
+      </c>
+      <c r="B9" s="51"/>
+      <c r="C9" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="47">
+      <c r="F9" s="46">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="53" t="s">
+      <c r="A10" s="51">
+        <v>42736</v>
+      </c>
+      <c r="B10" s="51"/>
+      <c r="C10" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="46">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="53" t="s">
+      <c r="A11" s="51">
+        <v>42736</v>
+      </c>
+      <c r="B11" s="51"/>
+      <c r="C11" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="E11" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F11" s="46">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="53" t="s">
+      <c r="A12" s="51">
+        <v>42736</v>
+      </c>
+      <c r="B12" s="51"/>
+      <c r="C12" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="47">
+      <c r="F12" s="46">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="53" t="s">
+      <c r="A13" s="51">
+        <v>42736</v>
+      </c>
+      <c r="B13" s="51"/>
+      <c r="C13" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="47">
+      <c r="F13" s="46">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="53" t="s">
+      <c r="A14" s="51">
+        <v>42736</v>
+      </c>
+      <c r="B14" s="51"/>
+      <c r="C14" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="53" t="s">
+      <c r="E14" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="47">
+      <c r="F14" s="46">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="53" t="s">
+      <c r="A15" s="51">
+        <v>42736</v>
+      </c>
+      <c r="B15" s="51"/>
+      <c r="C15" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="47">
+      <c r="F15" s="46">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="53" t="s">
+      <c r="A16" s="51">
+        <v>42736</v>
+      </c>
+      <c r="B16" s="51"/>
+      <c r="C16" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="53" t="s">
+      <c r="E16" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="47">
+      <c r="F16" s="46">
         <v>10</v>
       </c>
     </row>

--- a/application/src/test/resources/CCD_TestDefinition_V31_RDM-2053.xlsx
+++ b/application/src/test/resources/CCD_TestDefinition_V31_RDM-2053.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/space/workspace/ccd-definition-store-api/application/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C408E87-1EE1-D34A-A582-0CF89D4D7D3B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093FA3BE-778C-984A-938C-C640165CB942}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16780" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="281">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -914,7 +914,7 @@
     <numFmt numFmtId="165" formatCode="d\/m\/yy"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1122,31 +1122,6 @@
       <i/>
       <sz val="10"/>
       <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFC000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="5" tint="-0.499984740745262"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1430,7 +1405,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1485,6 +1460,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1611,13 +1589,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="32" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="33" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="34" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -2281,11 +2252,11 @@
       <c r="F2" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
@@ -2294,10 +2265,10 @@
       <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="50" t="s">
         <v>193</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -2306,279 +2277,279 @@
       <c r="F3" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="55">
-        <v>42736</v>
-      </c>
-      <c r="B4" s="46"/>
+      <c r="A4" s="56">
+        <v>42736</v>
+      </c>
+      <c r="B4" s="47"/>
       <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="47">
         <v>1</v>
       </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="55">
-        <v>42736</v>
-      </c>
-      <c r="B5" s="46"/>
+      <c r="A5" s="56">
+        <v>42736</v>
+      </c>
+      <c r="B5" s="47"/>
       <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="47">
         <v>2</v>
       </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="55">
-        <v>42736</v>
-      </c>
-      <c r="B6" s="46"/>
+      <c r="A6" s="56">
+        <v>42736</v>
+      </c>
+      <c r="B6" s="47"/>
       <c r="C6" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="47">
         <v>3</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="55">
-        <v>42736</v>
-      </c>
-      <c r="B7" s="46"/>
+      <c r="A7" s="56">
+        <v>42736</v>
+      </c>
+      <c r="B7" s="47"/>
       <c r="C7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="47">
         <v>2</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="55">
-        <v>42736</v>
-      </c>
-      <c r="B8" s="46"/>
+      <c r="A8" s="56">
+        <v>42736</v>
+      </c>
+      <c r="B8" s="47"/>
       <c r="C8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="47">
         <v>3</v>
       </c>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="55">
-        <v>42736</v>
-      </c>
-      <c r="B9" s="46"/>
+      <c r="A9" s="56">
+        <v>42736</v>
+      </c>
+      <c r="B9" s="47"/>
       <c r="C9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="47">
         <v>1</v>
       </c>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="46"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="46"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
@@ -2600,297 +2571,297 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="28.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="56" customWidth="1"/>
-    <col min="3" max="3" width="29.83203125" style="56" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="56" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" style="56" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="56" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="57" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" style="57" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="57" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="57" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="57" customWidth="1"/>
     <col min="7" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.15">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="63" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64" t="s">
         <v>220</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="64" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="64" t="s">
         <v>222</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="64" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="60" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="64" t="s">
+      <c r="E3" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="64" t="s">
+      <c r="F3" s="65" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="51">
-        <v>42736</v>
-      </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52" t="s">
+      <c r="A4" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="51">
-        <v>42736</v>
-      </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="52" t="s">
+      <c r="A5" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B5" s="52"/>
+      <c r="C5" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="47">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="51">
-        <v>42736</v>
-      </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="52" t="s">
+      <c r="A6" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B6" s="52"/>
+      <c r="C6" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="47">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="51">
-        <v>42736</v>
-      </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="52" t="s">
+      <c r="A7" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B7" s="52"/>
+      <c r="C7" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="51">
-        <v>42736</v>
-      </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="52" t="s">
+      <c r="A8" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B8" s="52"/>
+      <c r="C8" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="47">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="51">
-        <v>42736</v>
-      </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="52" t="s">
+      <c r="A9" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B9" s="52"/>
+      <c r="C9" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="47">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="51">
-        <v>42736</v>
-      </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="52" t="s">
+      <c r="A10" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B10" s="52"/>
+      <c r="C10" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="47">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="51">
-        <v>42736</v>
-      </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="52" t="s">
+      <c r="A11" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B11" s="52"/>
+      <c r="C11" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="47">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="51">
-        <v>42736</v>
-      </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="52" t="s">
+      <c r="A12" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B12" s="52"/>
+      <c r="C12" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="52" t="s">
+      <c r="E12" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="47">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="51">
-        <v>42736</v>
-      </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="52" t="s">
+      <c r="A13" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B13" s="52"/>
+      <c r="C13" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="52" t="s">
+      <c r="E13" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="47">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="51">
-        <v>42736</v>
-      </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="52" t="s">
+      <c r="A14" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B14" s="52"/>
+      <c r="C14" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="52" t="s">
+      <c r="E14" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="47">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="51">
-        <v>42736</v>
-      </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="52" t="s">
+      <c r="A15" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="46">
+      <c r="F15" s="47">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="51">
-        <v>42736</v>
-      </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="52" t="s">
+      <c r="A16" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="52" t="s">
+      <c r="E16" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="46">
+      <c r="F16" s="47">
         <v>10</v>
       </c>
     </row>
@@ -2955,7 +2926,7 @@
       <c r="E2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="66" t="s">
         <v>156</v>
       </c>
       <c r="G2" s="4"/>
@@ -2971,10 +2942,10 @@
       <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="50" t="s">
         <v>193</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -2983,86 +2954,86 @@
       <c r="F3" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>42736</v>
       </c>
-      <c r="B4" s="66"/>
+      <c r="B4" s="67"/>
       <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="47">
         <v>1</v>
       </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>42736</v>
       </c>
-      <c r="B5" s="46"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="47">
         <v>1</v>
       </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>42736</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="47">
         <v>1</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>42736</v>
       </c>
-      <c r="B7" s="46"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="3" t="s">
         <v>27</v>
       </c>
@@ -3072,20 +3043,20 @@
       <c r="E7" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="47">
         <v>2</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>42736</v>
       </c>
-      <c r="B8" s="46"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="3" t="s">
         <v>27</v>
       </c>
@@ -3095,167 +3066,167 @@
       <c r="E8" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="47">
         <v>3</v>
       </c>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>42736</v>
       </c>
-      <c r="B9" s="46"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="47">
         <v>1</v>
       </c>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="51"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="51"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="51"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="51"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="51"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="51"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="51"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="51"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="51"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
@@ -3326,22 +3297,22 @@
       <c r="E2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="66" t="s">
         <v>225</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="66" t="s">
         <v>226</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="66" t="s">
         <v>226</v>
       </c>
-      <c r="J2" s="122" t="s">
+      <c r="J2" s="123" t="s">
         <v>272</v>
       </c>
-      <c r="K2" s="123" t="s">
+      <c r="K2" s="124" t="s">
         <v>271</v>
       </c>
       <c r="L2" s="4"/>
@@ -3376,10 +3347,10 @@
       <c r="I3" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="J3" s="124" t="s">
+      <c r="J3" s="125" t="s">
         <v>118</v>
       </c>
-      <c r="K3" s="124" t="s">
+      <c r="K3" s="125" t="s">
         <v>268</v>
       </c>
       <c r="L3" s="8"/>
@@ -3400,7 +3371,7 @@
       <c r="E4" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="4">
@@ -3434,7 +3405,7 @@
       <c r="E5" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="53" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="4">
@@ -3468,7 +3439,7 @@
       <c r="E6" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="53" t="s">
         <v>55</v>
       </c>
       <c r="G6" s="4">
@@ -3500,7 +3471,7 @@
       <c r="E7" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="53" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="4">
@@ -3532,7 +3503,7 @@
       <c r="E8" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="53" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="4">
@@ -3564,7 +3535,7 @@
       <c r="E9" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="53" t="s">
         <v>55</v>
       </c>
       <c r="G9" s="4">
@@ -3596,7 +3567,7 @@
       <c r="E10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="53" t="s">
         <v>235</v>
       </c>
       <c r="G10" s="4">
@@ -3628,7 +3599,7 @@
       <c r="E11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="52" t="s">
+      <c r="F11" s="53" t="s">
         <v>235</v>
       </c>
       <c r="G11" s="4">
@@ -3660,7 +3631,7 @@
       <c r="E12" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="52" t="s">
+      <c r="F12" s="53" t="s">
         <v>235</v>
       </c>
       <c r="G12" s="4">
@@ -3692,7 +3663,7 @@
       <c r="E13" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="52" t="s">
+      <c r="F13" s="53" t="s">
         <v>236</v>
       </c>
       <c r="G13" s="4">
@@ -3724,7 +3695,7 @@
       <c r="E14" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="53" t="s">
         <v>235</v>
       </c>
       <c r="G14" s="4">
@@ -3756,7 +3727,7 @@
       <c r="E15" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="53" t="s">
         <v>235</v>
       </c>
       <c r="G15" s="4">
@@ -3788,7 +3759,7 @@
       <c r="E16" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="52" t="s">
+      <c r="F16" s="53" t="s">
         <v>235</v>
       </c>
       <c r="G16" s="4">
@@ -4056,16 +4027,16 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="67">
-        <v>42736</v>
-      </c>
-      <c r="B4" s="68">
+      <c r="A4" s="68">
+        <v>42736</v>
+      </c>
+      <c r="B4" s="69">
         <v>42737</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="70" t="s">
         <v>242</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="71" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -4081,16 +4052,16 @@
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="71">
-        <v>42736</v>
-      </c>
-      <c r="B5" s="72">
+      <c r="A5" s="72">
+        <v>42736</v>
+      </c>
+      <c r="B5" s="73">
         <v>42737</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="74" t="s">
         <v>243</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="75" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -4106,13 +4077,13 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="75">
-        <v>42736</v>
-      </c>
-      <c r="B6" s="76"/>
+      <c r="A6" s="76">
+        <v>42736</v>
+      </c>
+      <c r="B6" s="77"/>
       <c r="C6" s="36"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
       <c r="F6" s="34"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -4997,7 +4968,7 @@
       <c r="IU3" s="26"/>
     </row>
     <row r="4" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="78">
+      <c r="A4" s="79">
         <v>42736</v>
       </c>
       <c r="B4" s="4"/>
@@ -5262,7 +5233,7 @@
       <c r="IU4" s="26"/>
     </row>
     <row r="5" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="78">
+      <c r="A5" s="79">
         <v>42736</v>
       </c>
       <c r="B5" s="4"/>
@@ -5527,7 +5498,7 @@
       <c r="IU5" s="26"/>
     </row>
     <row r="6" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="78">
+      <c r="A6" s="79">
         <v>42736</v>
       </c>
       <c r="B6" s="4"/>
@@ -5792,14 +5763,14 @@
       <c r="IU6" s="26"/>
     </row>
     <row r="7" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="79">
+      <c r="A7" s="80">
         <v>42736</v>
       </c>
       <c r="B7" s="23"/>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="70" t="s">
+      <c r="D7" s="71" t="s">
         <v>249</v>
       </c>
       <c r="E7" s="29" t="s">
@@ -6057,17 +6028,17 @@
       <c r="IU7" s="26"/>
     </row>
     <row r="8" spans="1:255" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="80">
+      <c r="A8" s="81">
         <v>42736</v>
       </c>
       <c r="B8" s="17"/>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="75" t="s">
         <v>251</v>
       </c>
-      <c r="E8" s="81" t="s">
+      <c r="E8" s="82" t="s">
         <v>255</v>
       </c>
       <c r="F8" s="4"/>
@@ -6322,14 +6293,14 @@
       <c r="IU8" s="26"/>
     </row>
     <row r="9" spans="1:255" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="82">
+      <c r="A9" s="83">
         <v>42736</v>
       </c>
       <c r="B9" s="36"/>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="78" t="s">
         <v>253</v>
       </c>
       <c r="E9" s="32" t="s">
@@ -6869,654 +6840,654 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>257</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
     </row>
     <row r="2" spans="1:11" ht="65" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="86"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="88" t="s">
+      <c r="A2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="89" t="s">
+      <c r="F2" s="90" t="s">
         <v>246</v>
       </c>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
     </row>
     <row r="3" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="91" t="s">
+      <c r="D3" s="92" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="91" t="s">
+      <c r="E3" s="92" t="s">
         <v>247</v>
       </c>
-      <c r="F3" s="91" t="s">
+      <c r="F3" s="92" t="s">
         <v>248</v>
       </c>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
     </row>
     <row r="4" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="93">
-        <v>42736</v>
-      </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="95" t="s">
+      <c r="A4" s="94">
+        <v>42736</v>
+      </c>
+      <c r="B4" s="95"/>
+      <c r="C4" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="95" t="s">
+      <c r="D4" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="96" t="s">
         <v>249</v>
       </c>
-      <c r="F4" s="95" t="s">
+      <c r="F4" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="96"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="97"/>
     </row>
     <row r="5" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="93">
-        <v>42736</v>
-      </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="95" t="s">
+      <c r="A5" s="94">
+        <v>42736</v>
+      </c>
+      <c r="B5" s="95"/>
+      <c r="C5" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="95" t="s">
+      <c r="D5" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="95" t="s">
+      <c r="E5" s="96" t="s">
         <v>251</v>
       </c>
-      <c r="F5" s="95" t="s">
+      <c r="F5" s="96" t="s">
         <v>252</v>
       </c>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="96"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="97"/>
     </row>
     <row r="6" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="93">
-        <v>42736</v>
-      </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="95" t="s">
+      <c r="A6" s="94">
+        <v>42736</v>
+      </c>
+      <c r="B6" s="95"/>
+      <c r="C6" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="95" t="s">
+      <c r="D6" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="95" t="s">
+      <c r="E6" s="96" t="s">
         <v>253</v>
       </c>
-      <c r="F6" s="95" t="s">
+      <c r="F6" s="96" t="s">
         <v>258</v>
       </c>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="96"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="97"/>
     </row>
     <row r="7" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="93">
-        <v>42736</v>
-      </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="95" t="s">
+      <c r="A7" s="94">
+        <v>42736</v>
+      </c>
+      <c r="B7" s="95"/>
+      <c r="C7" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="95" t="s">
+      <c r="E7" s="96" t="s">
         <v>249</v>
       </c>
-      <c r="F7" s="95" t="s">
+      <c r="F7" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="96"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="97"/>
     </row>
     <row r="8" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="93">
-        <v>42736</v>
-      </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="95" t="s">
+      <c r="A8" s="94">
+        <v>42736</v>
+      </c>
+      <c r="B8" s="95"/>
+      <c r="C8" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="95" t="s">
+      <c r="D8" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="95" t="s">
+      <c r="E8" s="96" t="s">
         <v>251</v>
       </c>
-      <c r="F8" s="95" t="s">
+      <c r="F8" s="96" t="s">
         <v>252</v>
       </c>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="96"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="97"/>
     </row>
     <row r="9" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="93">
-        <v>42736</v>
-      </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="95" t="s">
+      <c r="A9" s="94">
+        <v>42736</v>
+      </c>
+      <c r="B9" s="95"/>
+      <c r="C9" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="95" t="s">
+      <c r="D9" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="95" t="s">
+      <c r="E9" s="96" t="s">
         <v>253</v>
       </c>
-      <c r="F9" s="95" t="s">
+      <c r="F9" s="96" t="s">
         <v>258</v>
       </c>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="96"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="97"/>
     </row>
     <row r="10" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="93">
-        <v>42736</v>
-      </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="95" t="s">
+      <c r="A10" s="94">
+        <v>42736</v>
+      </c>
+      <c r="B10" s="95"/>
+      <c r="C10" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="95" t="s">
+      <c r="D10" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="95" t="s">
+      <c r="E10" s="96" t="s">
         <v>249</v>
       </c>
-      <c r="F10" s="95" t="s">
+      <c r="F10" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="96"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="97"/>
     </row>
     <row r="11" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="93">
-        <v>42736</v>
-      </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="95" t="s">
+      <c r="A11" s="94">
+        <v>42736</v>
+      </c>
+      <c r="B11" s="95"/>
+      <c r="C11" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="95" t="s">
+      <c r="D11" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="95" t="s">
+      <c r="E11" s="96" t="s">
         <v>251</v>
       </c>
-      <c r="F11" s="95" t="s">
+      <c r="F11" s="96" t="s">
         <v>252</v>
       </c>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="96"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="97"/>
     </row>
     <row r="12" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="93">
-        <v>42736</v>
-      </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="95" t="s">
+      <c r="A12" s="94">
+        <v>42736</v>
+      </c>
+      <c r="B12" s="95"/>
+      <c r="C12" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="95" t="s">
+      <c r="D12" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="95" t="s">
+      <c r="E12" s="96" t="s">
         <v>253</v>
       </c>
-      <c r="F12" s="95" t="s">
+      <c r="F12" s="96" t="s">
         <v>258</v>
       </c>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="96"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="97"/>
     </row>
     <row r="13" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="93">
-        <v>42736</v>
-      </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="95" t="s">
+      <c r="A13" s="94">
+        <v>42736</v>
+      </c>
+      <c r="B13" s="95"/>
+      <c r="C13" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="95" t="s">
+      <c r="D13" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="95" t="s">
+      <c r="E13" s="96" t="s">
         <v>249</v>
       </c>
-      <c r="F13" s="95" t="s">
+      <c r="F13" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="96"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="97"/>
     </row>
     <row r="14" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="93">
-        <v>42736</v>
-      </c>
-      <c r="B14" s="94"/>
-      <c r="C14" s="95" t="s">
+      <c r="A14" s="94">
+        <v>42736</v>
+      </c>
+      <c r="B14" s="95"/>
+      <c r="C14" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="95" t="s">
+      <c r="D14" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="95" t="s">
+      <c r="E14" s="96" t="s">
         <v>249</v>
       </c>
-      <c r="F14" s="95" t="s">
+      <c r="F14" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="96"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="97"/>
     </row>
     <row r="15" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="93">
-        <v>42736</v>
-      </c>
-      <c r="B15" s="94"/>
-      <c r="C15" s="95" t="s">
+      <c r="A15" s="94">
+        <v>42736</v>
+      </c>
+      <c r="B15" s="95"/>
+      <c r="C15" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="95" t="s">
+      <c r="D15" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="95" t="s">
+      <c r="E15" s="96" t="s">
         <v>249</v>
       </c>
-      <c r="F15" s="95" t="s">
+      <c r="F15" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="96"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="97"/>
     </row>
     <row r="16" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="93">
-        <v>42736</v>
-      </c>
-      <c r="B16" s="94"/>
-      <c r="C16" s="95" t="s">
+      <c r="A16" s="94">
+        <v>42736</v>
+      </c>
+      <c r="B16" s="95"/>
+      <c r="C16" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="95" t="s">
+      <c r="D16" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="95" t="s">
+      <c r="E16" s="96" t="s">
         <v>249</v>
       </c>
-      <c r="F16" s="95" t="s">
+      <c r="F16" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="96"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="97"/>
     </row>
     <row r="17" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="93">
-        <v>42736</v>
-      </c>
-      <c r="B17" s="94"/>
-      <c r="C17" s="95" t="s">
+      <c r="A17" s="94">
+        <v>42736</v>
+      </c>
+      <c r="B17" s="95"/>
+      <c r="C17" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="95" t="s">
+      <c r="D17" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="95" t="s">
+      <c r="E17" s="96" t="s">
         <v>249</v>
       </c>
-      <c r="F17" s="95" t="s">
+      <c r="F17" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="96"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="97"/>
     </row>
     <row r="18" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="93">
-        <v>42736</v>
-      </c>
-      <c r="B18" s="94"/>
-      <c r="C18" s="95" t="s">
+      <c r="A18" s="94">
+        <v>42736</v>
+      </c>
+      <c r="B18" s="95"/>
+      <c r="C18" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="95" t="s">
+      <c r="D18" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="95" t="s">
+      <c r="E18" s="96" t="s">
         <v>249</v>
       </c>
-      <c r="F18" s="95" t="s">
+      <c r="F18" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="96"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="97"/>
     </row>
     <row r="19" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="93">
-        <v>42736</v>
-      </c>
-      <c r="B19" s="94"/>
-      <c r="C19" s="95" t="s">
+      <c r="A19" s="94">
+        <v>42736</v>
+      </c>
+      <c r="B19" s="95"/>
+      <c r="C19" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="95" t="s">
+      <c r="D19" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="95" t="s">
+      <c r="E19" s="96" t="s">
         <v>249</v>
       </c>
-      <c r="F19" s="95" t="s">
+      <c r="F19" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="96"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="97"/>
     </row>
     <row r="20" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="93">
-        <v>42736</v>
-      </c>
-      <c r="B20" s="94"/>
-      <c r="C20" s="95" t="s">
+      <c r="A20" s="94">
+        <v>42736</v>
+      </c>
+      <c r="B20" s="95"/>
+      <c r="C20" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="95" t="s">
+      <c r="D20" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="95" t="s">
+      <c r="E20" s="96" t="s">
         <v>249</v>
       </c>
-      <c r="F20" s="95" t="s">
+      <c r="F20" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="G20" s="94"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="96"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="97"/>
     </row>
     <row r="21" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="93">
-        <v>42736</v>
-      </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="95" t="s">
+      <c r="A21" s="94">
+        <v>42736</v>
+      </c>
+      <c r="B21" s="95"/>
+      <c r="C21" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="95" t="s">
+      <c r="D21" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="95" t="s">
+      <c r="E21" s="96" t="s">
         <v>249</v>
       </c>
-      <c r="F21" s="95" t="s">
+      <c r="F21" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="96"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="97"/>
     </row>
     <row r="22" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="93">
-        <v>42736</v>
-      </c>
-      <c r="B22" s="94"/>
-      <c r="C22" s="95" t="s">
+      <c r="A22" s="94">
+        <v>42736</v>
+      </c>
+      <c r="B22" s="95"/>
+      <c r="C22" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="95" t="s">
+      <c r="D22" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="95" t="s">
+      <c r="E22" s="96" t="s">
         <v>249</v>
       </c>
-      <c r="F22" s="95" t="s">
+      <c r="F22" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="96"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="97"/>
     </row>
     <row r="23" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="93">
-        <v>42736</v>
-      </c>
-      <c r="B23" s="94"/>
-      <c r="C23" s="95" t="s">
+      <c r="A23" s="94">
+        <v>42736</v>
+      </c>
+      <c r="B23" s="95"/>
+      <c r="C23" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="95" t="s">
+      <c r="D23" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="E23" s="95" t="s">
+      <c r="E23" s="96" t="s">
         <v>249</v>
       </c>
-      <c r="F23" s="95" t="s">
+      <c r="F23" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="G23" s="94"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="96"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="97"/>
     </row>
     <row r="24" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="93">
-        <v>42736</v>
-      </c>
-      <c r="B24" s="94"/>
-      <c r="C24" s="95" t="s">
+      <c r="A24" s="94">
+        <v>42736</v>
+      </c>
+      <c r="B24" s="95"/>
+      <c r="C24" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="95" t="s">
+      <c r="D24" s="96" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="95" t="s">
+      <c r="E24" s="96" t="s">
         <v>249</v>
       </c>
-      <c r="F24" s="95" t="s">
+      <c r="F24" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="G24" s="94"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="96"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="97"/>
     </row>
     <row r="25" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="93">
-        <v>42736</v>
-      </c>
-      <c r="B25" s="94"/>
-      <c r="C25" s="95" t="s">
+      <c r="A25" s="94">
+        <v>42736</v>
+      </c>
+      <c r="B25" s="95"/>
+      <c r="C25" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="95" t="s">
+      <c r="D25" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="E25" s="95" t="s">
+      <c r="E25" s="96" t="s">
         <v>249</v>
       </c>
-      <c r="F25" s="95" t="s">
+      <c r="F25" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="G25" s="94"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="96"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="97"/>
     </row>
     <row r="26" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="93">
-        <v>42736</v>
-      </c>
-      <c r="B26" s="94"/>
-      <c r="C26" s="95" t="s">
+      <c r="A26" s="94">
+        <v>42736</v>
+      </c>
+      <c r="B26" s="95"/>
+      <c r="C26" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="97" t="s">
+      <c r="D26" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="E26" s="95" t="s">
+      <c r="E26" s="96" t="s">
         <v>249</v>
       </c>
-      <c r="F26" s="95" t="s">
+      <c r="F26" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="G26" s="94"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="96"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="97"/>
     </row>
     <row r="27" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="93">
-        <v>42736</v>
-      </c>
-      <c r="B27" s="94"/>
-      <c r="C27" s="98" t="s">
+      <c r="A27" s="94">
+        <v>42736</v>
+      </c>
+      <c r="B27" s="95"/>
+      <c r="C27" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="95" t="s">
+      <c r="D27" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="95" t="s">
+      <c r="E27" s="96" t="s">
         <v>249</v>
       </c>
-      <c r="F27" s="95" t="s">
+      <c r="F27" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="96"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="97"/>
     </row>
     <row r="28" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="93">
-        <v>42736</v>
-      </c>
-      <c r="B28" s="94"/>
-      <c r="C28" s="98" t="s">
+      <c r="A28" s="94">
+        <v>42736</v>
+      </c>
+      <c r="B28" s="95"/>
+      <c r="C28" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="97" t="s">
+      <c r="D28" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="95" t="s">
+      <c r="E28" s="96" t="s">
         <v>249</v>
       </c>
-      <c r="F28" s="95" t="s">
+      <c r="F28" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="G28" s="94"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="94"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="96"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="95"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="97"/>
     </row>
     <row r="29" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="80"/>
+      <c r="A29" s="81"/>
       <c r="B29" s="17"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
       <c r="I29" s="17"/>
@@ -7524,12 +7495,12 @@
       <c r="K29" s="26"/>
     </row>
     <row r="30" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="80"/>
+      <c r="A30" s="81"/>
       <c r="B30" s="17"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
@@ -7537,12 +7508,12 @@
       <c r="K30" s="26"/>
     </row>
     <row r="31" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="80"/>
+      <c r="A31" s="81"/>
       <c r="B31" s="17"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
@@ -7550,12 +7521,12 @@
       <c r="K31" s="26"/>
     </row>
     <row r="32" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="80"/>
+      <c r="A32" s="81"/>
       <c r="B32" s="17"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
@@ -7563,12 +7534,12 @@
       <c r="K32" s="26"/>
     </row>
     <row r="33" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="80"/>
+      <c r="A33" s="81"/>
       <c r="B33" s="17"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
@@ -7576,12 +7547,12 @@
       <c r="K33" s="26"/>
     </row>
     <row r="34" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="80"/>
+      <c r="A34" s="81"/>
       <c r="B34" s="17"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
@@ -7589,12 +7560,12 @@
       <c r="K34" s="26"/>
     </row>
     <row r="35" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="80"/>
+      <c r="A35" s="81"/>
       <c r="B35" s="17"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
@@ -7602,12 +7573,12 @@
       <c r="K35" s="26"/>
     </row>
     <row r="36" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="80"/>
+      <c r="A36" s="81"/>
       <c r="B36" s="17"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
@@ -7615,12 +7586,12 @@
       <c r="K36" s="26"/>
     </row>
     <row r="37" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="80"/>
+      <c r="A37" s="81"/>
       <c r="B37" s="17"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
@@ -7628,12 +7599,12 @@
       <c r="K37" s="26"/>
     </row>
     <row r="38" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="80"/>
+      <c r="A38" s="81"/>
       <c r="B38" s="17"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
@@ -7641,12 +7612,12 @@
       <c r="K38" s="26"/>
     </row>
     <row r="39" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="80"/>
+      <c r="A39" s="81"/>
       <c r="B39" s="17"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
@@ -7654,12 +7625,12 @@
       <c r="K39" s="26"/>
     </row>
     <row r="40" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="80"/>
+      <c r="A40" s="81"/>
       <c r="B40" s="17"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
@@ -7667,12 +7638,12 @@
       <c r="K40" s="26"/>
     </row>
     <row r="41" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="80"/>
+      <c r="A41" s="81"/>
       <c r="B41" s="17"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="74"/>
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
@@ -7680,12 +7651,12 @@
       <c r="K41" s="26"/>
     </row>
     <row r="42" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="80"/>
+      <c r="A42" s="81"/>
       <c r="B42" s="17"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="74"/>
       <c r="G42" s="17"/>
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
@@ -7693,12 +7664,12 @@
       <c r="K42" s="26"/>
     </row>
     <row r="43" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="80"/>
+      <c r="A43" s="81"/>
       <c r="B43" s="17"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="74"/>
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
       <c r="I43" s="17"/>
@@ -7706,12 +7677,12 @@
       <c r="K43" s="26"/>
     </row>
     <row r="44" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="80"/>
+      <c r="A44" s="81"/>
       <c r="B44" s="17"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
@@ -7719,12 +7690,12 @@
       <c r="K44" s="26"/>
     </row>
     <row r="45" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="80"/>
+      <c r="A45" s="81"/>
       <c r="B45" s="17"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="74"/>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
       <c r="I45" s="17"/>
@@ -7732,12 +7703,12 @@
       <c r="K45" s="26"/>
     </row>
     <row r="46" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="80"/>
+      <c r="A46" s="81"/>
       <c r="B46" s="17"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
@@ -7745,12 +7716,12 @@
       <c r="K46" s="26"/>
     </row>
     <row r="47" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="80"/>
+      <c r="A47" s="81"/>
       <c r="B47" s="17"/>
-      <c r="C47" s="73"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
@@ -7758,12 +7729,12 @@
       <c r="K47" s="26"/>
     </row>
     <row r="48" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="80"/>
+      <c r="A48" s="81"/>
       <c r="B48" s="17"/>
-      <c r="C48" s="81"/>
+      <c r="C48" s="82"/>
       <c r="D48" s="28"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
@@ -7771,12 +7742,12 @@
       <c r="K48" s="26"/>
     </row>
     <row r="49" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="80"/>
+      <c r="A49" s="81"/>
       <c r="B49" s="17"/>
-      <c r="C49" s="81"/>
+      <c r="C49" s="82"/>
       <c r="D49" s="31"/>
-      <c r="E49" s="73"/>
-      <c r="F49" s="73"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="74"/>
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
       <c r="I49" s="17"/>
@@ -7784,12 +7755,12 @@
       <c r="K49" s="26"/>
     </row>
     <row r="50" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="80"/>
+      <c r="A50" s="81"/>
       <c r="B50" s="17"/>
-      <c r="C50" s="81"/>
+      <c r="C50" s="82"/>
       <c r="D50" s="28"/>
-      <c r="E50" s="73"/>
-      <c r="F50" s="73"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="74"/>
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
@@ -7797,12 +7768,12 @@
       <c r="K50" s="26"/>
     </row>
     <row r="51" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="82"/>
+      <c r="A51" s="83"/>
       <c r="B51" s="36"/>
       <c r="C51" s="32"/>
       <c r="D51" s="31"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="77"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="78"/>
       <c r="G51" s="36"/>
       <c r="H51" s="36"/>
       <c r="I51" s="36"/>
@@ -8634,7 +8605,7 @@
       <c r="IU3" s="26"/>
     </row>
     <row r="4" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="78">
+      <c r="A4" s="79">
         <v>42736</v>
       </c>
       <c r="B4" s="4"/>
@@ -8901,7 +8872,7 @@
       <c r="IU4" s="26"/>
     </row>
     <row r="5" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="78">
+      <c r="A5" s="79">
         <v>42736</v>
       </c>
       <c r="B5" s="4"/>
@@ -9168,7 +9139,7 @@
       <c r="IU5" s="26"/>
     </row>
     <row r="6" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="78">
+      <c r="A6" s="79">
         <v>42736</v>
       </c>
       <c r="B6" s="4"/>
@@ -9435,7 +9406,7 @@
       <c r="IU6" s="26"/>
     </row>
     <row r="7" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="78">
+      <c r="A7" s="79">
         <v>42736</v>
       </c>
       <c r="B7" s="4"/>
@@ -9702,7 +9673,7 @@
       <c r="IU7" s="26"/>
     </row>
     <row r="8" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="78">
+      <c r="A8" s="79">
         <v>42736</v>
       </c>
       <c r="B8" s="4"/>
@@ -9969,7 +9940,7 @@
       <c r="IU8" s="26"/>
     </row>
     <row r="9" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="78">
+      <c r="A9" s="79">
         <v>42736</v>
       </c>
       <c r="B9" s="4"/>
@@ -10236,7 +10207,7 @@
       <c r="IU9" s="26"/>
     </row>
     <row r="10" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="78">
+      <c r="A10" s="79">
         <v>42736</v>
       </c>
       <c r="B10" s="4"/>
@@ -10503,7 +10474,7 @@
       <c r="IU10" s="26"/>
     </row>
     <row r="11" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="78">
+      <c r="A11" s="79">
         <v>42736</v>
       </c>
       <c r="B11" s="4"/>
@@ -10770,7 +10741,7 @@
       <c r="IU11" s="26"/>
     </row>
     <row r="12" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="78">
+      <c r="A12" s="79">
         <v>42736</v>
       </c>
       <c r="B12" s="4"/>
@@ -11037,7 +11008,7 @@
       <c r="IU12" s="26"/>
     </row>
     <row r="13" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="78">
+      <c r="A13" s="79">
         <v>42736</v>
       </c>
       <c r="B13" s="4"/>
@@ -11304,7 +11275,7 @@
       <c r="IU13" s="26"/>
     </row>
     <row r="14" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="78">
+      <c r="A14" s="79">
         <v>42736</v>
       </c>
       <c r="B14" s="4"/>
@@ -11571,7 +11542,7 @@
       <c r="IU14" s="26"/>
     </row>
     <row r="15" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="78">
+      <c r="A15" s="79">
         <v>42736</v>
       </c>
       <c r="B15" s="4"/>
@@ -11856,870 +11827,870 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" style="99" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="99" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="99" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="99" customWidth="1"/>
-    <col min="5" max="255" width="14.5" style="99" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" style="100" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="100" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="100" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="100" customWidth="1"/>
+    <col min="5" max="255" width="14.5" style="100" customWidth="1"/>
     <col min="256" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:255" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="101" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
-      <c r="Y1" s="106"/>
-      <c r="Z1" s="106"/>
-      <c r="AA1" s="106"/>
-      <c r="AB1" s="106"/>
-      <c r="AC1" s="106"/>
-      <c r="AD1" s="106"/>
-      <c r="AE1" s="106"/>
-      <c r="AF1" s="106"/>
-      <c r="AG1" s="106"/>
-      <c r="AH1" s="106"/>
-      <c r="AI1" s="106"/>
-      <c r="AJ1" s="106"/>
-      <c r="AK1" s="106"/>
-      <c r="AL1" s="106"/>
-      <c r="AM1" s="106"/>
-      <c r="AN1" s="106"/>
-      <c r="AO1" s="106"/>
-      <c r="AP1" s="106"/>
-      <c r="AQ1" s="106"/>
-      <c r="AR1" s="106"/>
-      <c r="AS1" s="106"/>
-      <c r="AT1" s="106"/>
-      <c r="AU1" s="106"/>
-      <c r="AV1" s="106"/>
-      <c r="AW1" s="106"/>
-      <c r="AX1" s="106"/>
-      <c r="AY1" s="106"/>
-      <c r="AZ1" s="106"/>
-      <c r="BA1" s="106"/>
-      <c r="BB1" s="106"/>
-      <c r="BC1" s="106"/>
-      <c r="BD1" s="106"/>
-      <c r="BE1" s="106"/>
-      <c r="BF1" s="106"/>
-      <c r="BG1" s="106"/>
-      <c r="BH1" s="106"/>
-      <c r="BI1" s="106"/>
-      <c r="BJ1" s="106"/>
-      <c r="BK1" s="106"/>
-      <c r="BL1" s="106"/>
-      <c r="BM1" s="106"/>
-      <c r="BN1" s="106"/>
-      <c r="BO1" s="106"/>
-      <c r="BP1" s="106"/>
-      <c r="BQ1" s="106"/>
-      <c r="BR1" s="106"/>
-      <c r="BS1" s="106"/>
-      <c r="BT1" s="106"/>
-      <c r="BU1" s="106"/>
-      <c r="BV1" s="106"/>
-      <c r="BW1" s="106"/>
-      <c r="BX1" s="106"/>
-      <c r="BY1" s="106"/>
-      <c r="BZ1" s="106"/>
-      <c r="CA1" s="106"/>
-      <c r="CB1" s="106"/>
-      <c r="CC1" s="106"/>
-      <c r="CD1" s="106"/>
-      <c r="CE1" s="106"/>
-      <c r="CF1" s="106"/>
-      <c r="CG1" s="106"/>
-      <c r="CH1" s="106"/>
-      <c r="CI1" s="106"/>
-      <c r="CJ1" s="106"/>
-      <c r="CK1" s="106"/>
-      <c r="CL1" s="106"/>
-      <c r="CM1" s="106"/>
-      <c r="CN1" s="106"/>
-      <c r="CO1" s="106"/>
-      <c r="CP1" s="106"/>
-      <c r="CQ1" s="106"/>
-      <c r="CR1" s="106"/>
-      <c r="CS1" s="106"/>
-      <c r="CT1" s="106"/>
-      <c r="CU1" s="106"/>
-      <c r="CV1" s="106"/>
-      <c r="CW1" s="106"/>
-      <c r="CX1" s="106"/>
-      <c r="CY1" s="106"/>
-      <c r="CZ1" s="106"/>
-      <c r="DA1" s="106"/>
-      <c r="DB1" s="106"/>
-      <c r="DC1" s="106"/>
-      <c r="DD1" s="106"/>
-      <c r="DE1" s="106"/>
-      <c r="DF1" s="106"/>
-      <c r="DG1" s="106"/>
-      <c r="DH1" s="106"/>
-      <c r="DI1" s="106"/>
-      <c r="DJ1" s="106"/>
-      <c r="DK1" s="106"/>
-      <c r="DL1" s="106"/>
-      <c r="DM1" s="106"/>
-      <c r="DN1" s="106"/>
-      <c r="DO1" s="106"/>
-      <c r="DP1" s="106"/>
-      <c r="DQ1" s="106"/>
-      <c r="DR1" s="106"/>
-      <c r="DS1" s="106"/>
-      <c r="DT1" s="106"/>
-      <c r="DU1" s="106"/>
-      <c r="DV1" s="106"/>
-      <c r="DW1" s="106"/>
-      <c r="DX1" s="106"/>
-      <c r="DY1" s="106"/>
-      <c r="DZ1" s="106"/>
-      <c r="EA1" s="106"/>
-      <c r="EB1" s="106"/>
-      <c r="EC1" s="106"/>
-      <c r="ED1" s="106"/>
-      <c r="EE1" s="106"/>
-      <c r="EF1" s="106"/>
-      <c r="EG1" s="106"/>
-      <c r="EH1" s="106"/>
-      <c r="EI1" s="106"/>
-      <c r="EJ1" s="106"/>
-      <c r="EK1" s="106"/>
-      <c r="EL1" s="106"/>
-      <c r="EM1" s="106"/>
-      <c r="EN1" s="106"/>
-      <c r="EO1" s="106"/>
-      <c r="EP1" s="106"/>
-      <c r="EQ1" s="106"/>
-      <c r="ER1" s="106"/>
-      <c r="ES1" s="106"/>
-      <c r="ET1" s="106"/>
-      <c r="EU1" s="106"/>
-      <c r="EV1" s="106"/>
-      <c r="EW1" s="106"/>
-      <c r="EX1" s="106"/>
-      <c r="EY1" s="106"/>
-      <c r="EZ1" s="106"/>
-      <c r="FA1" s="106"/>
-      <c r="FB1" s="106"/>
-      <c r="FC1" s="106"/>
-      <c r="FD1" s="106"/>
-      <c r="FE1" s="106"/>
-      <c r="FF1" s="106"/>
-      <c r="FG1" s="106"/>
-      <c r="FH1" s="106"/>
-      <c r="FI1" s="106"/>
-      <c r="FJ1" s="106"/>
-      <c r="FK1" s="106"/>
-      <c r="FL1" s="106"/>
-      <c r="FM1" s="106"/>
-      <c r="FN1" s="106"/>
-      <c r="FO1" s="106"/>
-      <c r="FP1" s="106"/>
-      <c r="FQ1" s="106"/>
-      <c r="FR1" s="106"/>
-      <c r="FS1" s="106"/>
-      <c r="FT1" s="106"/>
-      <c r="FU1" s="106"/>
-      <c r="FV1" s="106"/>
-      <c r="FW1" s="106"/>
-      <c r="FX1" s="106"/>
-      <c r="FY1" s="106"/>
-      <c r="FZ1" s="106"/>
-      <c r="GA1" s="106"/>
-      <c r="GB1" s="106"/>
-      <c r="GC1" s="106"/>
-      <c r="GD1" s="106"/>
-      <c r="GE1" s="106"/>
-      <c r="GF1" s="106"/>
-      <c r="GG1" s="106"/>
-      <c r="GH1" s="106"/>
-      <c r="GI1" s="106"/>
-      <c r="GJ1" s="106"/>
-      <c r="GK1" s="106"/>
-      <c r="GL1" s="106"/>
-      <c r="GM1" s="106"/>
-      <c r="GN1" s="106"/>
-      <c r="GO1" s="106"/>
-      <c r="GP1" s="106"/>
-      <c r="GQ1" s="106"/>
-      <c r="GR1" s="106"/>
-      <c r="GS1" s="106"/>
-      <c r="GT1" s="106"/>
-      <c r="GU1" s="106"/>
-      <c r="GV1" s="106"/>
-      <c r="GW1" s="106"/>
-      <c r="GX1" s="106"/>
-      <c r="GY1" s="106"/>
-      <c r="GZ1" s="106"/>
-      <c r="HA1" s="106"/>
-      <c r="HB1" s="106"/>
-      <c r="HC1" s="106"/>
-      <c r="HD1" s="106"/>
-      <c r="HE1" s="106"/>
-      <c r="HF1" s="106"/>
-      <c r="HG1" s="106"/>
-      <c r="HH1" s="106"/>
-      <c r="HI1" s="106"/>
-      <c r="HJ1" s="106"/>
-      <c r="HK1" s="106"/>
-      <c r="HL1" s="106"/>
-      <c r="HM1" s="106"/>
-      <c r="HN1" s="106"/>
-      <c r="HO1" s="106"/>
-      <c r="HP1" s="106"/>
-      <c r="HQ1" s="106"/>
-      <c r="HR1" s="106"/>
-      <c r="HS1" s="106"/>
-      <c r="HT1" s="106"/>
-      <c r="HU1" s="106"/>
-      <c r="HV1" s="106"/>
-      <c r="HW1" s="106"/>
-      <c r="HX1" s="106"/>
-      <c r="HY1" s="106"/>
-      <c r="HZ1" s="106"/>
-      <c r="IA1" s="106"/>
-      <c r="IB1" s="106"/>
-      <c r="IC1" s="106"/>
-      <c r="ID1" s="106"/>
-      <c r="IE1" s="106"/>
-      <c r="IF1" s="106"/>
-      <c r="IG1" s="106"/>
-      <c r="IH1" s="106"/>
-      <c r="II1" s="106"/>
-      <c r="IJ1" s="106"/>
-      <c r="IK1" s="106"/>
-      <c r="IL1" s="106"/>
-      <c r="IM1" s="106"/>
-      <c r="IN1" s="106"/>
-      <c r="IO1" s="106"/>
-      <c r="IP1" s="106"/>
-      <c r="IQ1" s="106"/>
-      <c r="IR1" s="106"/>
-      <c r="IS1" s="106"/>
-      <c r="IT1" s="106"/>
-      <c r="IU1" s="107"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+      <c r="AB1" s="107"/>
+      <c r="AC1" s="107"/>
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="107"/>
+      <c r="AG1" s="107"/>
+      <c r="AH1" s="107"/>
+      <c r="AI1" s="107"/>
+      <c r="AJ1" s="107"/>
+      <c r="AK1" s="107"/>
+      <c r="AL1" s="107"/>
+      <c r="AM1" s="107"/>
+      <c r="AN1" s="107"/>
+      <c r="AO1" s="107"/>
+      <c r="AP1" s="107"/>
+      <c r="AQ1" s="107"/>
+      <c r="AR1" s="107"/>
+      <c r="AS1" s="107"/>
+      <c r="AT1" s="107"/>
+      <c r="AU1" s="107"/>
+      <c r="AV1" s="107"/>
+      <c r="AW1" s="107"/>
+      <c r="AX1" s="107"/>
+      <c r="AY1" s="107"/>
+      <c r="AZ1" s="107"/>
+      <c r="BA1" s="107"/>
+      <c r="BB1" s="107"/>
+      <c r="BC1" s="107"/>
+      <c r="BD1" s="107"/>
+      <c r="BE1" s="107"/>
+      <c r="BF1" s="107"/>
+      <c r="BG1" s="107"/>
+      <c r="BH1" s="107"/>
+      <c r="BI1" s="107"/>
+      <c r="BJ1" s="107"/>
+      <c r="BK1" s="107"/>
+      <c r="BL1" s="107"/>
+      <c r="BM1" s="107"/>
+      <c r="BN1" s="107"/>
+      <c r="BO1" s="107"/>
+      <c r="BP1" s="107"/>
+      <c r="BQ1" s="107"/>
+      <c r="BR1" s="107"/>
+      <c r="BS1" s="107"/>
+      <c r="BT1" s="107"/>
+      <c r="BU1" s="107"/>
+      <c r="BV1" s="107"/>
+      <c r="BW1" s="107"/>
+      <c r="BX1" s="107"/>
+      <c r="BY1" s="107"/>
+      <c r="BZ1" s="107"/>
+      <c r="CA1" s="107"/>
+      <c r="CB1" s="107"/>
+      <c r="CC1" s="107"/>
+      <c r="CD1" s="107"/>
+      <c r="CE1" s="107"/>
+      <c r="CF1" s="107"/>
+      <c r="CG1" s="107"/>
+      <c r="CH1" s="107"/>
+      <c r="CI1" s="107"/>
+      <c r="CJ1" s="107"/>
+      <c r="CK1" s="107"/>
+      <c r="CL1" s="107"/>
+      <c r="CM1" s="107"/>
+      <c r="CN1" s="107"/>
+      <c r="CO1" s="107"/>
+      <c r="CP1" s="107"/>
+      <c r="CQ1" s="107"/>
+      <c r="CR1" s="107"/>
+      <c r="CS1" s="107"/>
+      <c r="CT1" s="107"/>
+      <c r="CU1" s="107"/>
+      <c r="CV1" s="107"/>
+      <c r="CW1" s="107"/>
+      <c r="CX1" s="107"/>
+      <c r="CY1" s="107"/>
+      <c r="CZ1" s="107"/>
+      <c r="DA1" s="107"/>
+      <c r="DB1" s="107"/>
+      <c r="DC1" s="107"/>
+      <c r="DD1" s="107"/>
+      <c r="DE1" s="107"/>
+      <c r="DF1" s="107"/>
+      <c r="DG1" s="107"/>
+      <c r="DH1" s="107"/>
+      <c r="DI1" s="107"/>
+      <c r="DJ1" s="107"/>
+      <c r="DK1" s="107"/>
+      <c r="DL1" s="107"/>
+      <c r="DM1" s="107"/>
+      <c r="DN1" s="107"/>
+      <c r="DO1" s="107"/>
+      <c r="DP1" s="107"/>
+      <c r="DQ1" s="107"/>
+      <c r="DR1" s="107"/>
+      <c r="DS1" s="107"/>
+      <c r="DT1" s="107"/>
+      <c r="DU1" s="107"/>
+      <c r="DV1" s="107"/>
+      <c r="DW1" s="107"/>
+      <c r="DX1" s="107"/>
+      <c r="DY1" s="107"/>
+      <c r="DZ1" s="107"/>
+      <c r="EA1" s="107"/>
+      <c r="EB1" s="107"/>
+      <c r="EC1" s="107"/>
+      <c r="ED1" s="107"/>
+      <c r="EE1" s="107"/>
+      <c r="EF1" s="107"/>
+      <c r="EG1" s="107"/>
+      <c r="EH1" s="107"/>
+      <c r="EI1" s="107"/>
+      <c r="EJ1" s="107"/>
+      <c r="EK1" s="107"/>
+      <c r="EL1" s="107"/>
+      <c r="EM1" s="107"/>
+      <c r="EN1" s="107"/>
+      <c r="EO1" s="107"/>
+      <c r="EP1" s="107"/>
+      <c r="EQ1" s="107"/>
+      <c r="ER1" s="107"/>
+      <c r="ES1" s="107"/>
+      <c r="ET1" s="107"/>
+      <c r="EU1" s="107"/>
+      <c r="EV1" s="107"/>
+      <c r="EW1" s="107"/>
+      <c r="EX1" s="107"/>
+      <c r="EY1" s="107"/>
+      <c r="EZ1" s="107"/>
+      <c r="FA1" s="107"/>
+      <c r="FB1" s="107"/>
+      <c r="FC1" s="107"/>
+      <c r="FD1" s="107"/>
+      <c r="FE1" s="107"/>
+      <c r="FF1" s="107"/>
+      <c r="FG1" s="107"/>
+      <c r="FH1" s="107"/>
+      <c r="FI1" s="107"/>
+      <c r="FJ1" s="107"/>
+      <c r="FK1" s="107"/>
+      <c r="FL1" s="107"/>
+      <c r="FM1" s="107"/>
+      <c r="FN1" s="107"/>
+      <c r="FO1" s="107"/>
+      <c r="FP1" s="107"/>
+      <c r="FQ1" s="107"/>
+      <c r="FR1" s="107"/>
+      <c r="FS1" s="107"/>
+      <c r="FT1" s="107"/>
+      <c r="FU1" s="107"/>
+      <c r="FV1" s="107"/>
+      <c r="FW1" s="107"/>
+      <c r="FX1" s="107"/>
+      <c r="FY1" s="107"/>
+      <c r="FZ1" s="107"/>
+      <c r="GA1" s="107"/>
+      <c r="GB1" s="107"/>
+      <c r="GC1" s="107"/>
+      <c r="GD1" s="107"/>
+      <c r="GE1" s="107"/>
+      <c r="GF1" s="107"/>
+      <c r="GG1" s="107"/>
+      <c r="GH1" s="107"/>
+      <c r="GI1" s="107"/>
+      <c r="GJ1" s="107"/>
+      <c r="GK1" s="107"/>
+      <c r="GL1" s="107"/>
+      <c r="GM1" s="107"/>
+      <c r="GN1" s="107"/>
+      <c r="GO1" s="107"/>
+      <c r="GP1" s="107"/>
+      <c r="GQ1" s="107"/>
+      <c r="GR1" s="107"/>
+      <c r="GS1" s="107"/>
+      <c r="GT1" s="107"/>
+      <c r="GU1" s="107"/>
+      <c r="GV1" s="107"/>
+      <c r="GW1" s="107"/>
+      <c r="GX1" s="107"/>
+      <c r="GY1" s="107"/>
+      <c r="GZ1" s="107"/>
+      <c r="HA1" s="107"/>
+      <c r="HB1" s="107"/>
+      <c r="HC1" s="107"/>
+      <c r="HD1" s="107"/>
+      <c r="HE1" s="107"/>
+      <c r="HF1" s="107"/>
+      <c r="HG1" s="107"/>
+      <c r="HH1" s="107"/>
+      <c r="HI1" s="107"/>
+      <c r="HJ1" s="107"/>
+      <c r="HK1" s="107"/>
+      <c r="HL1" s="107"/>
+      <c r="HM1" s="107"/>
+      <c r="HN1" s="107"/>
+      <c r="HO1" s="107"/>
+      <c r="HP1" s="107"/>
+      <c r="HQ1" s="107"/>
+      <c r="HR1" s="107"/>
+      <c r="HS1" s="107"/>
+      <c r="HT1" s="107"/>
+      <c r="HU1" s="107"/>
+      <c r="HV1" s="107"/>
+      <c r="HW1" s="107"/>
+      <c r="HX1" s="107"/>
+      <c r="HY1" s="107"/>
+      <c r="HZ1" s="107"/>
+      <c r="IA1" s="107"/>
+      <c r="IB1" s="107"/>
+      <c r="IC1" s="107"/>
+      <c r="ID1" s="107"/>
+      <c r="IE1" s="107"/>
+      <c r="IF1" s="107"/>
+      <c r="IG1" s="107"/>
+      <c r="IH1" s="107"/>
+      <c r="II1" s="107"/>
+      <c r="IJ1" s="107"/>
+      <c r="IK1" s="107"/>
+      <c r="IL1" s="107"/>
+      <c r="IM1" s="107"/>
+      <c r="IN1" s="107"/>
+      <c r="IO1" s="107"/>
+      <c r="IP1" s="107"/>
+      <c r="IQ1" s="107"/>
+      <c r="IR1" s="107"/>
+      <c r="IS1" s="107"/>
+      <c r="IT1" s="107"/>
+      <c r="IU1" s="108"/>
     </row>
     <row r="2" spans="1:255" ht="65" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="109" t="s">
+      <c r="A2" s="109"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="109" t="s">
+      <c r="D2" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="109" t="s">
+      <c r="E2" s="110" t="s">
         <v>260</v>
       </c>
-      <c r="F2" s="109" t="s">
+      <c r="F2" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="110"/>
-      <c r="IU2" s="111"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="111"/>
+      <c r="IU2" s="112"/>
     </row>
     <row r="3" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="113" t="s">
+      <c r="D3" s="114" t="s">
         <v>263</v>
       </c>
-      <c r="E3" s="113" t="s">
+      <c r="E3" s="114" t="s">
         <v>247</v>
       </c>
-      <c r="F3" s="112" t="s">
+      <c r="F3" s="113" t="s">
         <v>248</v>
       </c>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="110"/>
-      <c r="IU3" s="111"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="111"/>
+      <c r="IU3" s="112"/>
     </row>
     <row r="4" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="114">
-        <v>42736</v>
-      </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="115" t="s">
+      <c r="A4" s="115">
+        <v>42736</v>
+      </c>
+      <c r="B4" s="105"/>
+      <c r="C4" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="115" t="s">
+      <c r="D4" s="116" t="s">
         <v>145</v>
       </c>
-      <c r="E4" s="115" t="s">
+      <c r="E4" s="116" t="s">
         <v>249</v>
       </c>
-      <c r="F4" s="115" t="s">
+      <c r="F4" s="116" t="s">
         <v>250</v>
       </c>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="110"/>
-      <c r="IU4" s="111"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="111"/>
+      <c r="IU4" s="112"/>
     </row>
     <row r="5" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="114">
-        <v>42736</v>
-      </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="115" t="s">
+      <c r="A5" s="115">
+        <v>42736</v>
+      </c>
+      <c r="B5" s="105"/>
+      <c r="C5" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="115" t="s">
+      <c r="D5" s="116" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="115" t="s">
+      <c r="E5" s="116" t="s">
         <v>253</v>
       </c>
-      <c r="F5" s="115" t="s">
+      <c r="F5" s="116" t="s">
         <v>261</v>
       </c>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="110"/>
-      <c r="IU5" s="111"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="111"/>
+      <c r="IU5" s="112"/>
     </row>
     <row r="6" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="114">
-        <v>42736</v>
-      </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="115" t="s">
+      <c r="A6" s="115">
+        <v>42736</v>
+      </c>
+      <c r="B6" s="105"/>
+      <c r="C6" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="115" t="s">
+      <c r="D6" s="116" t="s">
         <v>147</v>
       </c>
-      <c r="E6" s="115" t="s">
+      <c r="E6" s="116" t="s">
         <v>249</v>
       </c>
-      <c r="F6" s="115" t="s">
+      <c r="F6" s="116" t="s">
         <v>261</v>
       </c>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="110"/>
-      <c r="IU6" s="111"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="111"/>
+      <c r="IU6" s="112"/>
     </row>
     <row r="7" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="114">
-        <v>42736</v>
-      </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="115" t="s">
+      <c r="A7" s="115">
+        <v>42736</v>
+      </c>
+      <c r="B7" s="105"/>
+      <c r="C7" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="115" t="s">
+      <c r="D7" s="116" t="s">
         <v>147</v>
       </c>
-      <c r="E7" s="115" t="s">
+      <c r="E7" s="116" t="s">
         <v>251</v>
       </c>
-      <c r="F7" s="115" t="s">
+      <c r="F7" s="116" t="s">
         <v>261</v>
       </c>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="110"/>
-      <c r="IU7" s="111"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="111"/>
+      <c r="IU7" s="112"/>
     </row>
     <row r="8" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="114">
-        <v>42736</v>
-      </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="115" t="s">
+      <c r="A8" s="115">
+        <v>42736</v>
+      </c>
+      <c r="B8" s="105"/>
+      <c r="C8" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="115" t="s">
+      <c r="D8" s="116" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="115" t="s">
+      <c r="E8" s="116" t="s">
         <v>251</v>
       </c>
-      <c r="F8" s="115" t="s">
+      <c r="F8" s="116" t="s">
         <v>261</v>
       </c>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="110"/>
-      <c r="IU8" s="111"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="111"/>
+      <c r="IU8" s="112"/>
     </row>
     <row r="9" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="114">
-        <v>42736</v>
-      </c>
-      <c r="B9" s="104"/>
-      <c r="C9" s="115" t="s">
+      <c r="A9" s="115">
+        <v>42736</v>
+      </c>
+      <c r="B9" s="105"/>
+      <c r="C9" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="115" t="s">
+      <c r="D9" s="116" t="s">
         <v>149</v>
       </c>
-      <c r="E9" s="115" t="s">
+      <c r="E9" s="116" t="s">
         <v>253</v>
       </c>
-      <c r="F9" s="115" t="s">
+      <c r="F9" s="116" t="s">
         <v>252</v>
       </c>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="110"/>
-      <c r="IU9" s="111"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="111"/>
+      <c r="IU9" s="112"/>
     </row>
     <row r="10" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="114">
-        <v>42736</v>
-      </c>
-      <c r="B10" s="104"/>
-      <c r="C10" s="115" t="s">
+      <c r="A10" s="115">
+        <v>42736</v>
+      </c>
+      <c r="B10" s="105"/>
+      <c r="C10" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="115" t="s">
+      <c r="D10" s="116" t="s">
         <v>145</v>
       </c>
-      <c r="E10" s="115" t="s">
+      <c r="E10" s="116" t="s">
         <v>249</v>
       </c>
-      <c r="F10" s="115" t="s">
+      <c r="F10" s="116" t="s">
         <v>250</v>
       </c>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="110"/>
-      <c r="IU10" s="111"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="111"/>
+      <c r="IU10" s="112"/>
     </row>
     <row r="11" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="114">
-        <v>42736</v>
-      </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="115" t="s">
+      <c r="A11" s="115">
+        <v>42736</v>
+      </c>
+      <c r="B11" s="105"/>
+      <c r="C11" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="115" t="s">
+      <c r="D11" s="116" t="s">
         <v>145</v>
       </c>
-      <c r="E11" s="115" t="s">
+      <c r="E11" s="116" t="s">
         <v>253</v>
       </c>
-      <c r="F11" s="115" t="s">
+      <c r="F11" s="116" t="s">
         <v>261</v>
       </c>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="110"/>
-      <c r="IU11" s="111"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="111"/>
+      <c r="IU11" s="112"/>
     </row>
     <row r="12" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="114">
-        <v>42736</v>
-      </c>
-      <c r="B12" s="104"/>
-      <c r="C12" s="115" t="s">
+      <c r="A12" s="115">
+        <v>42736</v>
+      </c>
+      <c r="B12" s="105"/>
+      <c r="C12" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="115" t="s">
+      <c r="D12" s="116" t="s">
         <v>147</v>
       </c>
-      <c r="E12" s="115" t="s">
+      <c r="E12" s="116" t="s">
         <v>249</v>
       </c>
-      <c r="F12" s="115" t="s">
+      <c r="F12" s="116" t="s">
         <v>261</v>
       </c>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="104"/>
-      <c r="L12" s="110"/>
-      <c r="IU12" s="111"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="111"/>
+      <c r="IU12" s="112"/>
     </row>
     <row r="13" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="114">
-        <v>42736</v>
-      </c>
-      <c r="B13" s="104"/>
-      <c r="C13" s="115" t="s">
+      <c r="A13" s="115">
+        <v>42736</v>
+      </c>
+      <c r="B13" s="105"/>
+      <c r="C13" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="115" t="s">
+      <c r="D13" s="116" t="s">
         <v>147</v>
       </c>
-      <c r="E13" s="115" t="s">
+      <c r="E13" s="116" t="s">
         <v>251</v>
       </c>
-      <c r="F13" s="115" t="s">
+      <c r="F13" s="116" t="s">
         <v>261</v>
       </c>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="110"/>
-      <c r="IU13" s="111"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="111"/>
+      <c r="IU13" s="112"/>
     </row>
     <row r="14" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="114">
-        <v>42736</v>
-      </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="115" t="s">
+      <c r="A14" s="115">
+        <v>42736</v>
+      </c>
+      <c r="B14" s="105"/>
+      <c r="C14" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="115" t="s">
+      <c r="D14" s="116" t="s">
         <v>149</v>
       </c>
-      <c r="E14" s="115" t="s">
+      <c r="E14" s="116" t="s">
         <v>251</v>
       </c>
-      <c r="F14" s="115" t="s">
+      <c r="F14" s="116" t="s">
         <v>261</v>
       </c>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="110"/>
-      <c r="IU14" s="111"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="111"/>
+      <c r="IU14" s="112"/>
     </row>
     <row r="15" spans="1:255" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="114">
-        <v>42736</v>
-      </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="115" t="s">
+      <c r="A15" s="115">
+        <v>42736</v>
+      </c>
+      <c r="B15" s="105"/>
+      <c r="C15" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="115" t="s">
+      <c r="D15" s="116" t="s">
         <v>149</v>
       </c>
-      <c r="E15" s="115" t="s">
+      <c r="E15" s="116" t="s">
         <v>253</v>
       </c>
-      <c r="F15" s="115" t="s">
+      <c r="F15" s="116" t="s">
         <v>252</v>
       </c>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="116"/>
-      <c r="M15" s="117"/>
-      <c r="N15" s="117"/>
-      <c r="O15" s="117"/>
-      <c r="P15" s="117"/>
-      <c r="Q15" s="117"/>
-      <c r="R15" s="117"/>
-      <c r="S15" s="117"/>
-      <c r="T15" s="117"/>
-      <c r="U15" s="117"/>
-      <c r="V15" s="117"/>
-      <c r="W15" s="117"/>
-      <c r="X15" s="117"/>
-      <c r="Y15" s="117"/>
-      <c r="Z15" s="117"/>
-      <c r="AA15" s="117"/>
-      <c r="AB15" s="117"/>
-      <c r="AC15" s="117"/>
-      <c r="AD15" s="117"/>
-      <c r="AE15" s="117"/>
-      <c r="AF15" s="117"/>
-      <c r="AG15" s="117"/>
-      <c r="AH15" s="117"/>
-      <c r="AI15" s="117"/>
-      <c r="AJ15" s="117"/>
-      <c r="AK15" s="117"/>
-      <c r="AL15" s="117"/>
-      <c r="AM15" s="117"/>
-      <c r="AN15" s="117"/>
-      <c r="AO15" s="117"/>
-      <c r="AP15" s="117"/>
-      <c r="AQ15" s="117"/>
-      <c r="AR15" s="117"/>
-      <c r="AS15" s="117"/>
-      <c r="AT15" s="117"/>
-      <c r="AU15" s="117"/>
-      <c r="AV15" s="117"/>
-      <c r="AW15" s="117"/>
-      <c r="AX15" s="117"/>
-      <c r="AY15" s="117"/>
-      <c r="AZ15" s="117"/>
-      <c r="BA15" s="117"/>
-      <c r="BB15" s="117"/>
-      <c r="BC15" s="117"/>
-      <c r="BD15" s="117"/>
-      <c r="BE15" s="117"/>
-      <c r="BF15" s="117"/>
-      <c r="BG15" s="117"/>
-      <c r="BH15" s="117"/>
-      <c r="BI15" s="117"/>
-      <c r="BJ15" s="117"/>
-      <c r="BK15" s="117"/>
-      <c r="BL15" s="117"/>
-      <c r="BM15" s="117"/>
-      <c r="BN15" s="117"/>
-      <c r="BO15" s="117"/>
-      <c r="BP15" s="117"/>
-      <c r="BQ15" s="117"/>
-      <c r="BR15" s="117"/>
-      <c r="BS15" s="117"/>
-      <c r="BT15" s="117"/>
-      <c r="BU15" s="117"/>
-      <c r="BV15" s="117"/>
-      <c r="BW15" s="117"/>
-      <c r="BX15" s="117"/>
-      <c r="BY15" s="117"/>
-      <c r="BZ15" s="117"/>
-      <c r="CA15" s="117"/>
-      <c r="CB15" s="117"/>
-      <c r="CC15" s="117"/>
-      <c r="CD15" s="117"/>
-      <c r="CE15" s="117"/>
-      <c r="CF15" s="117"/>
-      <c r="CG15" s="117"/>
-      <c r="CH15" s="117"/>
-      <c r="CI15" s="117"/>
-      <c r="CJ15" s="117"/>
-      <c r="CK15" s="117"/>
-      <c r="CL15" s="117"/>
-      <c r="CM15" s="117"/>
-      <c r="CN15" s="117"/>
-      <c r="CO15" s="117"/>
-      <c r="CP15" s="117"/>
-      <c r="CQ15" s="117"/>
-      <c r="CR15" s="117"/>
-      <c r="CS15" s="117"/>
-      <c r="CT15" s="117"/>
-      <c r="CU15" s="117"/>
-      <c r="CV15" s="117"/>
-      <c r="CW15" s="117"/>
-      <c r="CX15" s="117"/>
-      <c r="CY15" s="117"/>
-      <c r="CZ15" s="117"/>
-      <c r="DA15" s="117"/>
-      <c r="DB15" s="117"/>
-      <c r="DC15" s="117"/>
-      <c r="DD15" s="117"/>
-      <c r="DE15" s="117"/>
-      <c r="DF15" s="117"/>
-      <c r="DG15" s="117"/>
-      <c r="DH15" s="117"/>
-      <c r="DI15" s="117"/>
-      <c r="DJ15" s="117"/>
-      <c r="DK15" s="117"/>
-      <c r="DL15" s="117"/>
-      <c r="DM15" s="117"/>
-      <c r="DN15" s="117"/>
-      <c r="DO15" s="117"/>
-      <c r="DP15" s="117"/>
-      <c r="DQ15" s="117"/>
-      <c r="DR15" s="117"/>
-      <c r="DS15" s="117"/>
-      <c r="DT15" s="117"/>
-      <c r="DU15" s="117"/>
-      <c r="DV15" s="117"/>
-      <c r="DW15" s="117"/>
-      <c r="DX15" s="117"/>
-      <c r="DY15" s="117"/>
-      <c r="DZ15" s="117"/>
-      <c r="EA15" s="117"/>
-      <c r="EB15" s="117"/>
-      <c r="EC15" s="117"/>
-      <c r="ED15" s="117"/>
-      <c r="EE15" s="117"/>
-      <c r="EF15" s="117"/>
-      <c r="EG15" s="117"/>
-      <c r="EH15" s="117"/>
-      <c r="EI15" s="117"/>
-      <c r="EJ15" s="117"/>
-      <c r="EK15" s="117"/>
-      <c r="EL15" s="117"/>
-      <c r="EM15" s="117"/>
-      <c r="EN15" s="117"/>
-      <c r="EO15" s="117"/>
-      <c r="EP15" s="117"/>
-      <c r="EQ15" s="117"/>
-      <c r="ER15" s="117"/>
-      <c r="ES15" s="117"/>
-      <c r="ET15" s="117"/>
-      <c r="EU15" s="117"/>
-      <c r="EV15" s="117"/>
-      <c r="EW15" s="117"/>
-      <c r="EX15" s="117"/>
-      <c r="EY15" s="117"/>
-      <c r="EZ15" s="117"/>
-      <c r="FA15" s="117"/>
-      <c r="FB15" s="117"/>
-      <c r="FC15" s="117"/>
-      <c r="FD15" s="117"/>
-      <c r="FE15" s="117"/>
-      <c r="FF15" s="117"/>
-      <c r="FG15" s="117"/>
-      <c r="FH15" s="117"/>
-      <c r="FI15" s="117"/>
-      <c r="FJ15" s="117"/>
-      <c r="FK15" s="117"/>
-      <c r="FL15" s="117"/>
-      <c r="FM15" s="117"/>
-      <c r="FN15" s="117"/>
-      <c r="FO15" s="117"/>
-      <c r="FP15" s="117"/>
-      <c r="FQ15" s="117"/>
-      <c r="FR15" s="117"/>
-      <c r="FS15" s="117"/>
-      <c r="FT15" s="117"/>
-      <c r="FU15" s="117"/>
-      <c r="FV15" s="117"/>
-      <c r="FW15" s="117"/>
-      <c r="FX15" s="117"/>
-      <c r="FY15" s="117"/>
-      <c r="FZ15" s="117"/>
-      <c r="GA15" s="117"/>
-      <c r="GB15" s="117"/>
-      <c r="GC15" s="117"/>
-      <c r="GD15" s="117"/>
-      <c r="GE15" s="117"/>
-      <c r="GF15" s="117"/>
-      <c r="GG15" s="117"/>
-      <c r="GH15" s="117"/>
-      <c r="GI15" s="117"/>
-      <c r="GJ15" s="117"/>
-      <c r="GK15" s="117"/>
-      <c r="GL15" s="117"/>
-      <c r="GM15" s="117"/>
-      <c r="GN15" s="117"/>
-      <c r="GO15" s="117"/>
-      <c r="GP15" s="117"/>
-      <c r="GQ15" s="117"/>
-      <c r="GR15" s="117"/>
-      <c r="GS15" s="117"/>
-      <c r="GT15" s="117"/>
-      <c r="GU15" s="117"/>
-      <c r="GV15" s="117"/>
-      <c r="GW15" s="117"/>
-      <c r="GX15" s="117"/>
-      <c r="GY15" s="117"/>
-      <c r="GZ15" s="117"/>
-      <c r="HA15" s="117"/>
-      <c r="HB15" s="117"/>
-      <c r="HC15" s="117"/>
-      <c r="HD15" s="117"/>
-      <c r="HE15" s="117"/>
-      <c r="HF15" s="117"/>
-      <c r="HG15" s="117"/>
-      <c r="HH15" s="117"/>
-      <c r="HI15" s="117"/>
-      <c r="HJ15" s="117"/>
-      <c r="HK15" s="117"/>
-      <c r="HL15" s="117"/>
-      <c r="HM15" s="117"/>
-      <c r="HN15" s="117"/>
-      <c r="HO15" s="117"/>
-      <c r="HP15" s="117"/>
-      <c r="HQ15" s="117"/>
-      <c r="HR15" s="117"/>
-      <c r="HS15" s="117"/>
-      <c r="HT15" s="117"/>
-      <c r="HU15" s="117"/>
-      <c r="HV15" s="117"/>
-      <c r="HW15" s="117"/>
-      <c r="HX15" s="117"/>
-      <c r="HY15" s="117"/>
-      <c r="HZ15" s="117"/>
-      <c r="IA15" s="117"/>
-      <c r="IB15" s="117"/>
-      <c r="IC15" s="117"/>
-      <c r="ID15" s="117"/>
-      <c r="IE15" s="117"/>
-      <c r="IF15" s="117"/>
-      <c r="IG15" s="117"/>
-      <c r="IH15" s="117"/>
-      <c r="II15" s="117"/>
-      <c r="IJ15" s="117"/>
-      <c r="IK15" s="117"/>
-      <c r="IL15" s="117"/>
-      <c r="IM15" s="117"/>
-      <c r="IN15" s="117"/>
-      <c r="IO15" s="117"/>
-      <c r="IP15" s="117"/>
-      <c r="IQ15" s="117"/>
-      <c r="IR15" s="117"/>
-      <c r="IS15" s="117"/>
-      <c r="IT15" s="117"/>
-      <c r="IU15" s="118"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="117"/>
+      <c r="M15" s="118"/>
+      <c r="N15" s="118"/>
+      <c r="O15" s="118"/>
+      <c r="P15" s="118"/>
+      <c r="Q15" s="118"/>
+      <c r="R15" s="118"/>
+      <c r="S15" s="118"/>
+      <c r="T15" s="118"/>
+      <c r="U15" s="118"/>
+      <c r="V15" s="118"/>
+      <c r="W15" s="118"/>
+      <c r="X15" s="118"/>
+      <c r="Y15" s="118"/>
+      <c r="Z15" s="118"/>
+      <c r="AA15" s="118"/>
+      <c r="AB15" s="118"/>
+      <c r="AC15" s="118"/>
+      <c r="AD15" s="118"/>
+      <c r="AE15" s="118"/>
+      <c r="AF15" s="118"/>
+      <c r="AG15" s="118"/>
+      <c r="AH15" s="118"/>
+      <c r="AI15" s="118"/>
+      <c r="AJ15" s="118"/>
+      <c r="AK15" s="118"/>
+      <c r="AL15" s="118"/>
+      <c r="AM15" s="118"/>
+      <c r="AN15" s="118"/>
+      <c r="AO15" s="118"/>
+      <c r="AP15" s="118"/>
+      <c r="AQ15" s="118"/>
+      <c r="AR15" s="118"/>
+      <c r="AS15" s="118"/>
+      <c r="AT15" s="118"/>
+      <c r="AU15" s="118"/>
+      <c r="AV15" s="118"/>
+      <c r="AW15" s="118"/>
+      <c r="AX15" s="118"/>
+      <c r="AY15" s="118"/>
+      <c r="AZ15" s="118"/>
+      <c r="BA15" s="118"/>
+      <c r="BB15" s="118"/>
+      <c r="BC15" s="118"/>
+      <c r="BD15" s="118"/>
+      <c r="BE15" s="118"/>
+      <c r="BF15" s="118"/>
+      <c r="BG15" s="118"/>
+      <c r="BH15" s="118"/>
+      <c r="BI15" s="118"/>
+      <c r="BJ15" s="118"/>
+      <c r="BK15" s="118"/>
+      <c r="BL15" s="118"/>
+      <c r="BM15" s="118"/>
+      <c r="BN15" s="118"/>
+      <c r="BO15" s="118"/>
+      <c r="BP15" s="118"/>
+      <c r="BQ15" s="118"/>
+      <c r="BR15" s="118"/>
+      <c r="BS15" s="118"/>
+      <c r="BT15" s="118"/>
+      <c r="BU15" s="118"/>
+      <c r="BV15" s="118"/>
+      <c r="BW15" s="118"/>
+      <c r="BX15" s="118"/>
+      <c r="BY15" s="118"/>
+      <c r="BZ15" s="118"/>
+      <c r="CA15" s="118"/>
+      <c r="CB15" s="118"/>
+      <c r="CC15" s="118"/>
+      <c r="CD15" s="118"/>
+      <c r="CE15" s="118"/>
+      <c r="CF15" s="118"/>
+      <c r="CG15" s="118"/>
+      <c r="CH15" s="118"/>
+      <c r="CI15" s="118"/>
+      <c r="CJ15" s="118"/>
+      <c r="CK15" s="118"/>
+      <c r="CL15" s="118"/>
+      <c r="CM15" s="118"/>
+      <c r="CN15" s="118"/>
+      <c r="CO15" s="118"/>
+      <c r="CP15" s="118"/>
+      <c r="CQ15" s="118"/>
+      <c r="CR15" s="118"/>
+      <c r="CS15" s="118"/>
+      <c r="CT15" s="118"/>
+      <c r="CU15" s="118"/>
+      <c r="CV15" s="118"/>
+      <c r="CW15" s="118"/>
+      <c r="CX15" s="118"/>
+      <c r="CY15" s="118"/>
+      <c r="CZ15" s="118"/>
+      <c r="DA15" s="118"/>
+      <c r="DB15" s="118"/>
+      <c r="DC15" s="118"/>
+      <c r="DD15" s="118"/>
+      <c r="DE15" s="118"/>
+      <c r="DF15" s="118"/>
+      <c r="DG15" s="118"/>
+      <c r="DH15" s="118"/>
+      <c r="DI15" s="118"/>
+      <c r="DJ15" s="118"/>
+      <c r="DK15" s="118"/>
+      <c r="DL15" s="118"/>
+      <c r="DM15" s="118"/>
+      <c r="DN15" s="118"/>
+      <c r="DO15" s="118"/>
+      <c r="DP15" s="118"/>
+      <c r="DQ15" s="118"/>
+      <c r="DR15" s="118"/>
+      <c r="DS15" s="118"/>
+      <c r="DT15" s="118"/>
+      <c r="DU15" s="118"/>
+      <c r="DV15" s="118"/>
+      <c r="DW15" s="118"/>
+      <c r="DX15" s="118"/>
+      <c r="DY15" s="118"/>
+      <c r="DZ15" s="118"/>
+      <c r="EA15" s="118"/>
+      <c r="EB15" s="118"/>
+      <c r="EC15" s="118"/>
+      <c r="ED15" s="118"/>
+      <c r="EE15" s="118"/>
+      <c r="EF15" s="118"/>
+      <c r="EG15" s="118"/>
+      <c r="EH15" s="118"/>
+      <c r="EI15" s="118"/>
+      <c r="EJ15" s="118"/>
+      <c r="EK15" s="118"/>
+      <c r="EL15" s="118"/>
+      <c r="EM15" s="118"/>
+      <c r="EN15" s="118"/>
+      <c r="EO15" s="118"/>
+      <c r="EP15" s="118"/>
+      <c r="EQ15" s="118"/>
+      <c r="ER15" s="118"/>
+      <c r="ES15" s="118"/>
+      <c r="ET15" s="118"/>
+      <c r="EU15" s="118"/>
+      <c r="EV15" s="118"/>
+      <c r="EW15" s="118"/>
+      <c r="EX15" s="118"/>
+      <c r="EY15" s="118"/>
+      <c r="EZ15" s="118"/>
+      <c r="FA15" s="118"/>
+      <c r="FB15" s="118"/>
+      <c r="FC15" s="118"/>
+      <c r="FD15" s="118"/>
+      <c r="FE15" s="118"/>
+      <c r="FF15" s="118"/>
+      <c r="FG15" s="118"/>
+      <c r="FH15" s="118"/>
+      <c r="FI15" s="118"/>
+      <c r="FJ15" s="118"/>
+      <c r="FK15" s="118"/>
+      <c r="FL15" s="118"/>
+      <c r="FM15" s="118"/>
+      <c r="FN15" s="118"/>
+      <c r="FO15" s="118"/>
+      <c r="FP15" s="118"/>
+      <c r="FQ15" s="118"/>
+      <c r="FR15" s="118"/>
+      <c r="FS15" s="118"/>
+      <c r="FT15" s="118"/>
+      <c r="FU15" s="118"/>
+      <c r="FV15" s="118"/>
+      <c r="FW15" s="118"/>
+      <c r="FX15" s="118"/>
+      <c r="FY15" s="118"/>
+      <c r="FZ15" s="118"/>
+      <c r="GA15" s="118"/>
+      <c r="GB15" s="118"/>
+      <c r="GC15" s="118"/>
+      <c r="GD15" s="118"/>
+      <c r="GE15" s="118"/>
+      <c r="GF15" s="118"/>
+      <c r="GG15" s="118"/>
+      <c r="GH15" s="118"/>
+      <c r="GI15" s="118"/>
+      <c r="GJ15" s="118"/>
+      <c r="GK15" s="118"/>
+      <c r="GL15" s="118"/>
+      <c r="GM15" s="118"/>
+      <c r="GN15" s="118"/>
+      <c r="GO15" s="118"/>
+      <c r="GP15" s="118"/>
+      <c r="GQ15" s="118"/>
+      <c r="GR15" s="118"/>
+      <c r="GS15" s="118"/>
+      <c r="GT15" s="118"/>
+      <c r="GU15" s="118"/>
+      <c r="GV15" s="118"/>
+      <c r="GW15" s="118"/>
+      <c r="GX15" s="118"/>
+      <c r="GY15" s="118"/>
+      <c r="GZ15" s="118"/>
+      <c r="HA15" s="118"/>
+      <c r="HB15" s="118"/>
+      <c r="HC15" s="118"/>
+      <c r="HD15" s="118"/>
+      <c r="HE15" s="118"/>
+      <c r="HF15" s="118"/>
+      <c r="HG15" s="118"/>
+      <c r="HH15" s="118"/>
+      <c r="HI15" s="118"/>
+      <c r="HJ15" s="118"/>
+      <c r="HK15" s="118"/>
+      <c r="HL15" s="118"/>
+      <c r="HM15" s="118"/>
+      <c r="HN15" s="118"/>
+      <c r="HO15" s="118"/>
+      <c r="HP15" s="118"/>
+      <c r="HQ15" s="118"/>
+      <c r="HR15" s="118"/>
+      <c r="HS15" s="118"/>
+      <c r="HT15" s="118"/>
+      <c r="HU15" s="118"/>
+      <c r="HV15" s="118"/>
+      <c r="HW15" s="118"/>
+      <c r="HX15" s="118"/>
+      <c r="HY15" s="118"/>
+      <c r="HZ15" s="118"/>
+      <c r="IA15" s="118"/>
+      <c r="IB15" s="118"/>
+      <c r="IC15" s="118"/>
+      <c r="ID15" s="118"/>
+      <c r="IE15" s="118"/>
+      <c r="IF15" s="118"/>
+      <c r="IG15" s="118"/>
+      <c r="IH15" s="118"/>
+      <c r="II15" s="118"/>
+      <c r="IJ15" s="118"/>
+      <c r="IK15" s="118"/>
+      <c r="IL15" s="118"/>
+      <c r="IM15" s="118"/>
+      <c r="IN15" s="118"/>
+      <c r="IO15" s="118"/>
+      <c r="IP15" s="118"/>
+      <c r="IQ15" s="118"/>
+      <c r="IR15" s="118"/>
+      <c r="IS15" s="118"/>
+      <c r="IT15" s="118"/>
+      <c r="IU15" s="119"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
@@ -16033,10 +16004,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -16058,22 +16029,23 @@
     <col min="15" max="15" width="29.33203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="23.6640625" style="1" customWidth="1"/>
     <col min="17" max="17" width="31.1640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.33203125" style="1" customWidth="1"/>
-    <col min="20" max="1023" width="8.83203125" customWidth="1"/>
+    <col min="18" max="18" width="20" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="8.83203125" style="1" customWidth="1"/>
+    <col min="22" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="130" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="131" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4"/>
@@ -16090,9 +16062,11 @@
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
-      <c r="S1" s="119"/>
-    </row>
-    <row r="2" spans="1:19" ht="65" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+    </row>
+    <row r="2" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
@@ -16137,27 +16111,29 @@
       <c r="P2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="128" t="s">
+      <c r="Q2" s="42" t="s">
         <v>160</v>
       </c>
       <c r="R2" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="S2" s="126" t="s">
+      <c r="S2" s="127" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+    </row>
+    <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="132" t="s">
+      <c r="C3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="132" t="s">
+      <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -16196,17 +16172,19 @@
       <c r="P3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="42" t="s">
+      <c r="Q3" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="R3" s="42" t="s">
+      <c r="R3" s="43" t="s">
         <v>275</v>
       </c>
-      <c r="S3" s="127" t="s">
+      <c r="S3" s="128" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+    </row>
+    <row r="4" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>42736</v>
       </c>
@@ -16245,11 +16223,13 @@
       <c r="R4" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="S4" s="119" t="s">
+      <c r="S4" s="120" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+    </row>
+    <row r="5" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>42736</v>
       </c>
@@ -16288,13 +16268,15 @@
         <v>176</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="S5" s="119" t="s">
+        <v>176</v>
+      </c>
+      <c r="S5" s="120" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+    </row>
+    <row r="6" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>42736</v>
       </c>
@@ -16332,12 +16314,12 @@
       <c r="Q6" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="R6" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="S6" s="119"/>
-    </row>
-    <row r="7" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+    </row>
+    <row r="7" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>42736</v>
       </c>
@@ -16376,9 +16358,11 @@
       <c r="R7" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="S7" s="119"/>
-    </row>
-    <row r="8" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+    </row>
+    <row r="8" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>42736</v>
       </c>
@@ -16419,9 +16403,11 @@
       <c r="R8" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="S8" s="119"/>
-    </row>
-    <row r="9" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+    </row>
+    <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>42736</v>
       </c>
@@ -16460,9 +16446,11 @@
       <c r="R9" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="S9" s="119"/>
-    </row>
-    <row r="10" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+    </row>
+    <row r="10" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="4"/>
@@ -16481,9 +16469,11 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="119"/>
-    </row>
-    <row r="11" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+    </row>
+    <row r="11" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="4"/>
@@ -16502,9 +16492,11 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
-      <c r="S11" s="119"/>
-    </row>
-    <row r="12" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+    </row>
+    <row r="12" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="4"/>
@@ -16523,9 +16515,11 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="119"/>
-    </row>
-    <row r="13" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+    </row>
+    <row r="13" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="4"/>
@@ -16544,9 +16538,11 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
-      <c r="S13" s="119"/>
-    </row>
-    <row r="14" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+    </row>
+    <row r="14" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="4"/>
@@ -16565,9 +16561,11 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-      <c r="S14" s="119"/>
-    </row>
-    <row r="15" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+    </row>
+    <row r="15" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="4"/>
@@ -16586,9 +16584,11 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="119"/>
-    </row>
-    <row r="16" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+    </row>
+    <row r="16" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="4"/>
@@ -16607,9 +16607,11 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="119"/>
-    </row>
-    <row r="17" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+    </row>
+    <row r="17" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="4"/>
@@ -16628,9 +16630,11 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-      <c r="S17" s="119"/>
-    </row>
-    <row r="18" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+    </row>
+    <row r="18" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="4"/>
@@ -16649,9 +16653,11 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="119"/>
-    </row>
-    <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+    </row>
+    <row r="19" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="4"/>
@@ -16670,7 +16676,9 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-      <c r="S19" s="119"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
@@ -16727,7 +16735,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="119"/>
+      <c r="K1" s="120"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -16760,7 +16768,7 @@
       <c r="J2" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="K2" s="120" t="s">
+      <c r="K2" s="121" t="s">
         <v>264</v>
       </c>
       <c r="L2" s="13" t="s">
@@ -16772,7 +16780,7 @@
       <c r="N2" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="O2" s="125" t="s">
+      <c r="O2" s="126" t="s">
         <v>274</v>
       </c>
       <c r="P2" s="12"/>
@@ -16809,7 +16817,7 @@
       <c r="J3" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K3" s="121" t="s">
+      <c r="K3" s="122" t="s">
         <v>265</v>
       </c>
       <c r="L3" s="7" t="s">
@@ -16895,7 +16903,7 @@
       <c r="J5" s="4">
         <v>2</v>
       </c>
-      <c r="K5" s="119" t="s">
+      <c r="K5" s="120" t="s">
         <v>267</v>
       </c>
       <c r="L5" s="4"/>
@@ -16934,7 +16942,7 @@
       <c r="J6" s="4">
         <v>1</v>
       </c>
-      <c r="K6" s="119" t="s">
+      <c r="K6" s="120" t="s">
         <v>267</v>
       </c>
       <c r="L6" s="4"/>
@@ -16969,7 +16977,7 @@
         <v>56</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="119" t="s">
+      <c r="K7" s="120" t="s">
         <v>267</v>
       </c>
       <c r="L7" s="4"/>
@@ -17004,7 +17012,7 @@
         <v>59</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="119" t="s">
+      <c r="K8" s="120" t="s">
         <v>267</v>
       </c>
       <c r="L8" s="3" t="s">
@@ -17043,7 +17051,7 @@
       <c r="J9" s="4">
         <v>1</v>
       </c>
-      <c r="K9" s="119" t="s">
+      <c r="K9" s="120" t="s">
         <v>267</v>
       </c>
       <c r="L9" s="4"/>
@@ -17082,7 +17090,7 @@
       <c r="J10" s="4">
         <v>1</v>
       </c>
-      <c r="K10" s="119" t="s">
+      <c r="K10" s="120" t="s">
         <v>195</v>
       </c>
       <c r="L10" s="4"/>
@@ -17123,7 +17131,7 @@
       <c r="J11" s="4">
         <v>2</v>
       </c>
-      <c r="K11" s="119" t="s">
+      <c r="K11" s="120" t="s">
         <v>267</v>
       </c>
       <c r="L11" s="4"/>
@@ -17164,7 +17172,7 @@
       <c r="J12" s="4">
         <v>1</v>
       </c>
-      <c r="K12" s="119" t="s">
+      <c r="K12" s="120" t="s">
         <v>267</v>
       </c>
       <c r="L12" s="4"/>
@@ -17187,7 +17195,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="119"/>
+      <c r="K13" s="120"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -17206,7 +17214,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="119"/>
+      <c r="K14" s="120"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -17225,7 +17233,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="119"/>
+      <c r="K15" s="120"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -17244,7 +17252,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="119"/>
+      <c r="K16" s="120"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -17263,7 +17271,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="119"/>
+      <c r="K17" s="120"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -17303,285 +17311,285 @@
       <c r="A1" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.15">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="49" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="50" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="51">
-        <v>42736</v>
-      </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52" t="s">
+      <c r="A4" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="51">
-        <v>42736</v>
-      </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="52" t="s">
+      <c r="A5" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B5" s="52"/>
+      <c r="C5" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="47">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="51">
-        <v>42736</v>
-      </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="52" t="s">
+      <c r="A6" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B6" s="52"/>
+      <c r="C6" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="47">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="51">
-        <v>42736</v>
-      </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="52" t="s">
+      <c r="A7" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B7" s="52"/>
+      <c r="C7" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="51">
-        <v>42736</v>
-      </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="52" t="s">
+      <c r="A8" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B8" s="52"/>
+      <c r="C8" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="47">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="51">
-        <v>42736</v>
-      </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="52" t="s">
+      <c r="A9" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B9" s="52"/>
+      <c r="C9" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="47">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="51">
-        <v>42736</v>
-      </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="52" t="s">
+      <c r="A10" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B10" s="52"/>
+      <c r="C10" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="47">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="51">
-        <v>42736</v>
-      </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="52" t="s">
+      <c r="A11" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B11" s="52"/>
+      <c r="C11" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="47">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="51">
-        <v>42736</v>
-      </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="52" t="s">
+      <c r="A12" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B12" s="52"/>
+      <c r="C12" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="52" t="s">
+      <c r="E12" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="47">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="51">
-        <v>42736</v>
-      </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="52" t="s">
+      <c r="A13" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B13" s="52"/>
+      <c r="C13" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="52" t="s">
+      <c r="E13" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="47">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="51">
-        <v>42736</v>
-      </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="52" t="s">
+      <c r="A14" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B14" s="52"/>
+      <c r="C14" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="52" t="s">
+      <c r="E14" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="47">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="51">
-        <v>42736</v>
-      </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="52" t="s">
+      <c r="A15" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="46">
+      <c r="F15" s="47">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="51">
-        <v>42736</v>
-      </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="52" t="s">
+      <c r="A16" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="52" t="s">
+      <c r="E16" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="46">
+      <c r="F16" s="47">
         <v>10</v>
       </c>
     </row>
